--- a/excel/collective/zestawy_dla_uczniow/zestaw_016.xlsx
+++ b/excel/collective/zestawy_dla_uczniow/zestaw_016.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="308">
   <si>
     <t>ZESTAW ZADAŃ NR 16 - CZĘŚĆ 1</t>
   </si>
@@ -61,448 +61,520 @@
     <t>Przedmiot</t>
   </si>
   <si>
+    <t>Hanna Wilk</t>
+  </si>
+  <si>
+    <t>Adam Mazur</t>
+  </si>
+  <si>
+    <t>Jakub Grabowski</t>
+  </si>
+  <si>
+    <t>Natalia Wójcik</t>
+  </si>
+  <si>
+    <t>Amelia Maciejewska</t>
+  </si>
+  <si>
+    <t>ŚREDNIA</t>
+  </si>
+  <si>
+    <t>Język polski</t>
+  </si>
+  <si>
+    <t>Język angielski</t>
+  </si>
+  <si>
+    <t>Matematyka</t>
+  </si>
+  <si>
+    <t>Historia</t>
+  </si>
+  <si>
+    <t>Przyroda</t>
+  </si>
+  <si>
+    <t>Geografia</t>
+  </si>
+  <si>
+    <t>Informatyka</t>
+  </si>
+  <si>
+    <t>Plastyka</t>
+  </si>
+  <si>
+    <t>Muzyka</t>
+  </si>
+  <si>
+    <t>Wychowanie fizyczne</t>
+  </si>
+  <si>
+    <t>Technika</t>
+  </si>
+  <si>
+    <t>Religia</t>
+  </si>
+  <si>
+    <t>ŚREDNIA UCZNIA:</t>
+  </si>
+  <si>
+    <t>=ZASTĄP.TEKST(ŚREDNIA(B17:B28);".";",")</t>
+  </si>
+  <si>
+    <t>=ZASTĄP.TEKST(ŚREDNIA(C17:C28);".";",")</t>
+  </si>
+  <si>
+    <t>=ZASTĄP.TEKST(ŚREDNIA(D17:D28);".";",")</t>
+  </si>
+  <si>
+    <t>=ZASTĄP.TEKST(ŚREDNIA(E17:E28);".";",")</t>
+  </si>
+  <si>
+    <t>=ZASTĄP.TEKST(ŚREDNIA(F17:F28);".";",")</t>
+  </si>
+  <si>
+    <t>ZESTAW ZADAŃ NR 16 - CZĘŚĆ 2: ZAKUPY</t>
+  </si>
+  <si>
+    <t>Data: __________________ (wpisz dzisiejszą datę)</t>
+  </si>
+  <si>
+    <t>Poniżej znajduje się lista zakupów. Twoim zadaniem jest obliczenie wartości "Razem" dla każdego produktu</t>
+  </si>
+  <si>
+    <t>(cena × ilość) oraz obliczenie sumy całkowitej. Wartości "Razem" i "SUMA:" musisz obliczyć samodzielnie.</t>
+  </si>
+  <si>
+    <t>L.p.</t>
+  </si>
+  <si>
+    <t>Produkt</t>
+  </si>
+  <si>
+    <t>Cena (zł)</t>
+  </si>
+  <si>
+    <t>Ilość sztuk</t>
+  </si>
+  <si>
+    <t>Razem (zł)</t>
+  </si>
+  <si>
+    <t>Temperówka</t>
+  </si>
+  <si>
+    <t>1,50</t>
+  </si>
+  <si>
+    <t>Ołówek HB</t>
+  </si>
+  <si>
+    <t>0,80</t>
+  </si>
+  <si>
+    <t>Pędzelek</t>
+  </si>
+  <si>
+    <t>6,60</t>
+  </si>
+  <si>
+    <t>Cyrkiel</t>
+  </si>
+  <si>
+    <t>9,00</t>
+  </si>
+  <si>
+    <t>Długopis niebieski</t>
+  </si>
+  <si>
+    <t>2,70</t>
+  </si>
+  <si>
+    <t>Farby plakatowe 12 kolorów</t>
+  </si>
+  <si>
+    <t>21,50</t>
+  </si>
+  <si>
+    <t>SUMA:</t>
+  </si>
+  <si>
+    <t>ZESTAW ZADAŃ NR 16 - CZĘŚĆ 3: SPRZEDAŻ MIESIĘCZNA</t>
+  </si>
+  <si>
+    <t>Poniżej znajduje się sprzedaż produktów w trzech miesiącach.</t>
+  </si>
+  <si>
+    <t>Oblicz "Razem" dla każdego produktu w każdym miesiącu (cena × ilość).</t>
+  </si>
+  <si>
+    <t>Następnie oblicz "Razem" dla każdego miesiąca (suma wszystkich produktów).</t>
+  </si>
+  <si>
+    <t>Na końcu oblicz sumę sprzedaży z wszystkich trzech miesięcy.</t>
+  </si>
+  <si>
+    <t>Styczeń:</t>
+  </si>
+  <si>
+    <t>Zeszyt</t>
+  </si>
+  <si>
+    <t>3,71</t>
+  </si>
+  <si>
+    <t>Ołówek</t>
+  </si>
+  <si>
+    <t>14,40</t>
+  </si>
+  <si>
+    <t>Długopis</t>
+  </si>
+  <si>
+    <t>7,63</t>
+  </si>
+  <si>
+    <t>Linijka</t>
+  </si>
+  <si>
+    <t>21,70</t>
+  </si>
+  <si>
+    <t>Gumka</t>
+  </si>
+  <si>
+    <t>25,52</t>
+  </si>
+  <si>
+    <t>Razem Styczeń:</t>
+  </si>
+  <si>
+    <t>Luty:</t>
+  </si>
+  <si>
+    <t>13,29</t>
+  </si>
+  <si>
+    <t>27,87</t>
+  </si>
+  <si>
+    <t>7,69</t>
+  </si>
+  <si>
+    <t>23,23</t>
+  </si>
+  <si>
+    <t>15,82</t>
+  </si>
+  <si>
+    <t>Razem Luty:</t>
+  </si>
+  <si>
+    <t>Marzec:</t>
+  </si>
+  <si>
+    <t>15,73</t>
+  </si>
+  <si>
+    <t>23,65</t>
+  </si>
+  <si>
+    <t>6,37</t>
+  </si>
+  <si>
+    <t>16,39</t>
+  </si>
+  <si>
+    <t>18,89</t>
+  </si>
+  <si>
+    <t>Razem Marzec:</t>
+  </si>
+  <si>
+    <t>SUMA z 3 miesięcy:</t>
+  </si>
+  <si>
+    <t>ZADANIE 4: ŚREDNIE KLASY</t>
+  </si>
+  <si>
+    <t>Instrukcja:</t>
+  </si>
+  <si>
+    <t>1. W tabeli poniżej znajdują się oceny uczniów z różnych przedmiotów.</t>
+  </si>
+  <si>
+    <t>2. Uzupełnij kolumnę LP (kolejne numery).</t>
+  </si>
+  <si>
+    <t>3. Oblicz średnią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
+  </si>
+  <si>
+    <t>4. Jeżeli średnia ucznia jest większa lub równa 4,5, wpisz "TAK", w przeciwnym razie "NIE" w kolumnie "Czy pasek?".</t>
+  </si>
+  <si>
+    <t>5. Oblicz średnią ocen dla każdego przedmiotu i wpisz w wierszu "Średnia przedmiotu:".</t>
+  </si>
+  <si>
+    <t>6. Oblicz średnią ocen całej klasy (średnią wszystkich ocen w tabeli) i wpisz w komórce obok "Średnia klasy:".</t>
+  </si>
+  <si>
+    <t>LP</t>
+  </si>
+  <si>
+    <t>Imię</t>
+  </si>
+  <si>
+    <t>Nazwisko</t>
+  </si>
+  <si>
+    <t>Biologia</t>
+  </si>
+  <si>
+    <t>Chemia</t>
+  </si>
+  <si>
+    <t>Średnia ucznia</t>
+  </si>
+  <si>
+    <t>Czy pasek?</t>
+  </si>
+  <si>
+    <t>Oliwia</t>
+  </si>
+  <si>
+    <t>Jaworska</t>
+  </si>
+  <si>
+    <t>Wojciech</t>
+  </si>
+  <si>
+    <t>Kwiatkowski</t>
+  </si>
+  <si>
+    <t>Kacper</t>
+  </si>
+  <si>
+    <t>Lewandowski</t>
+  </si>
+  <si>
+    <t>Anna</t>
+  </si>
+  <si>
+    <t>Bednarska</t>
+  </si>
+  <si>
+    <t>Hanna</t>
+  </si>
+  <si>
+    <t>Kubiak</t>
+  </si>
+  <si>
+    <t>Jakub</t>
+  </si>
+  <si>
+    <t>Jankowski</t>
+  </si>
+  <si>
+    <t>Maja</t>
+  </si>
+  <si>
+    <t>Malinowska</t>
+  </si>
+  <si>
+    <t>Średnia przedmiotu:</t>
+  </si>
+  <si>
+    <t>Średnia klasy:</t>
+  </si>
+  <si>
+    <t>ZADANIE 5 - DANE OSOBOWE</t>
+  </si>
+  <si>
+    <t>1. Rozdziel kolumnę "Imię i nazwisko" na dwie osobne kolumny: "Imię" i "Nazwisko"</t>
+  </si>
+  <si>
+    <t>2. Dodaj kolumnę "Lp." i ponumeruj wszystkie wiersze</t>
+  </si>
+  <si>
+    <t>3. Oblicz ilość osób urodzonych w 1998 roku (funkcja LICZ.JEŻELI)</t>
+  </si>
+  <si>
+    <t>4. Znajdź największe zarobki (funkcja MAKS)</t>
+  </si>
+  <si>
+    <t>5. Znajdź najmniejsze zarobki (funkcja MIN)</t>
+  </si>
+  <si>
+    <t>Imię i nazwisko</t>
+  </si>
+  <si>
+    <t>Data urodzenia</t>
+  </si>
+  <si>
+    <t>Zarobki (zł)</t>
+  </si>
+  <si>
+    <t>Anna Król</t>
+  </si>
+  <si>
+    <t>17.08.1998</t>
+  </si>
+  <si>
+    <t>12 973,00 zł</t>
+  </si>
+  <si>
+    <t>Antoni Mazur</t>
+  </si>
+  <si>
+    <t>20.01.1999</t>
+  </si>
+  <si>
+    <t>5 850,00 zł</t>
+  </si>
+  <si>
+    <t>Jan Lewandowski</t>
+  </si>
+  <si>
+    <t>13.01.1989</t>
+  </si>
+  <si>
+    <t>12 908,00 zł</t>
+  </si>
+  <si>
+    <t>Hanna Czarnecka</t>
+  </si>
+  <si>
+    <t>27.08.1992</t>
+  </si>
+  <si>
+    <t>7 920,00 zł</t>
+  </si>
+  <si>
+    <t>Mikołaj Kamiński</t>
+  </si>
+  <si>
+    <t>03.01.1992</t>
+  </si>
+  <si>
+    <t>8 954,00 zł</t>
+  </si>
+  <si>
+    <t>Szymon Kowalczyk</t>
+  </si>
+  <si>
+    <t>14.03.1981</t>
+  </si>
+  <si>
+    <t>11 920,00 zł</t>
+  </si>
+  <si>
+    <t>Julia Czarnecka</t>
+  </si>
+  <si>
+    <t>23.05.1977</t>
+  </si>
+  <si>
+    <t>12 711,00 zł</t>
+  </si>
+  <si>
+    <t>Jakub Kowalczyk</t>
+  </si>
+  <si>
+    <t>19.01.1987</t>
+  </si>
+  <si>
+    <t>5 240,00 zł</t>
+  </si>
+  <si>
+    <t>Emilia Kubiak</t>
+  </si>
+  <si>
+    <t>20.06.1988</t>
+  </si>
+  <si>
+    <t>14 542,00 zł</t>
+  </si>
+  <si>
+    <t>Aleksander Dąbrowski</t>
+  </si>
+  <si>
+    <t>02.12.1988</t>
+  </si>
+  <si>
+    <t>4 332,00 zł</t>
+  </si>
+  <si>
+    <t>Wojciech Kowalski</t>
+  </si>
+  <si>
+    <t>26.08.1997</t>
+  </si>
+  <si>
+    <t>8 633,00 zł</t>
+  </si>
+  <si>
+    <t>Hanna Jaworska</t>
+  </si>
+  <si>
+    <t>11.09.2001</t>
+  </si>
+  <si>
+    <t>14 917,00 zł</t>
+  </si>
+  <si>
+    <t>Maja Piekarska</t>
+  </si>
+  <si>
+    <t>09.04.1976</t>
+  </si>
+  <si>
+    <t>14 869,00 zł</t>
+  </si>
+  <si>
+    <t>Anna Sadowska</t>
+  </si>
+  <si>
+    <t>20.02.2001</t>
+  </si>
+  <si>
+    <t>10 936,00 zł</t>
+  </si>
+  <si>
+    <t>Wojciech Dąbrowski</t>
+  </si>
+  <si>
+    <t>03.08.1982</t>
+  </si>
+  <si>
+    <t>6 104,00 zł</t>
+  </si>
+  <si>
+    <t>Anna Wójcik</t>
+  </si>
+  <si>
+    <t>03.01.1979</t>
+  </si>
+  <si>
+    <t>6 864,00 zł</t>
+  </si>
+  <si>
+    <t>Zuzanna Borkowska</t>
+  </si>
+  <si>
+    <t>14.05.1981</t>
+  </si>
+  <si>
+    <t>4 062,00 zł</t>
+  </si>
+  <si>
     <t>Zuzanna Maciejewska</t>
   </si>
   <si>
-    <t>Amelia Sikorska</t>
-  </si>
-  <si>
-    <t>Wojciech Kaczmarek</t>
-  </si>
-  <si>
-    <t>Hanna Kubiak</t>
-  </si>
-  <si>
-    <t>Anna Król</t>
-  </si>
-  <si>
-    <t>ŚREDNIA</t>
-  </si>
-  <si>
-    <t>Język polski</t>
-  </si>
-  <si>
-    <t>Język angielski</t>
-  </si>
-  <si>
-    <t>Matematyka</t>
-  </si>
-  <si>
-    <t>Historia</t>
-  </si>
-  <si>
-    <t>Przyroda</t>
-  </si>
-  <si>
-    <t>Geografia</t>
-  </si>
-  <si>
-    <t>Informatyka</t>
-  </si>
-  <si>
-    <t>Plastyka</t>
-  </si>
-  <si>
-    <t>Muzyka</t>
-  </si>
-  <si>
-    <t>Wychowanie fizyczne</t>
-  </si>
-  <si>
-    <t>Technika</t>
-  </si>
-  <si>
-    <t>Religia</t>
-  </si>
-  <si>
-    <t>ŚREDNIA UCZNIA:</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(B17:B28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(C17:C28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(D17:D28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(E17:E28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(F17:F28);".";",")</t>
-  </si>
-  <si>
-    <t>ZESTAW ZADAŃ NR 16 - CZĘŚĆ 2: ZAKUPY</t>
-  </si>
-  <si>
-    <t>Data: __________________ (wpisz dzisiejszą datę)</t>
-  </si>
-  <si>
-    <t>Poniżej znajduje się lista zakupów. Twoim zadaniem jest obliczenie wartości "Razem" dla każdego produktu</t>
-  </si>
-  <si>
-    <t>(cena × ilość) oraz obliczenie sumy całkowitej. Wartości "Razem" i "SUMA:" musisz obliczyć samodzielnie.</t>
-  </si>
-  <si>
-    <t>L.p.</t>
-  </si>
-  <si>
-    <t>Produkt</t>
-  </si>
-  <si>
-    <t>Cena (zł)</t>
-  </si>
-  <si>
-    <t>Ilość sztuk</t>
-  </si>
-  <si>
-    <t>Razem (zł)</t>
-  </si>
-  <si>
-    <t>Temperówka</t>
-  </si>
-  <si>
-    <t>1,70</t>
-  </si>
-  <si>
-    <t>Długopis niebieski</t>
-  </si>
-  <si>
-    <t>2,60</t>
-  </si>
-  <si>
-    <t>Ołówek HB</t>
-  </si>
-  <si>
-    <t>1,30</t>
-  </si>
-  <si>
-    <t>Linijka 30 cm</t>
-  </si>
-  <si>
-    <t>2,00</t>
-  </si>
-  <si>
-    <t>Blok rysunkowy A4</t>
-  </si>
-  <si>
-    <t>4,60</t>
-  </si>
-  <si>
-    <t>Pędzelek</t>
-  </si>
-  <si>
-    <t>5,60</t>
-  </si>
-  <si>
-    <t>SUMA:</t>
-  </si>
-  <si>
-    <t>ZESTAW ZADAŃ NR 16 - CZĘŚĆ 3: SPRZEDAŻ MIESIĘCZNA</t>
-  </si>
-  <si>
-    <t>Poniżej znajduje się sprzedaż produktów w trzech miesiącach.</t>
-  </si>
-  <si>
-    <t>Oblicz "Razem" dla każdego produktu w każdym miesiącu (cena × ilość).</t>
-  </si>
-  <si>
-    <t>Następnie oblicz "Razem" dla każdego miesiąca (suma wszystkich produktów).</t>
-  </si>
-  <si>
-    <t>Na końcu oblicz sumę sprzedaży z wszystkich trzech miesięcy.</t>
-  </si>
-  <si>
-    <t>Styczeń:</t>
-  </si>
-  <si>
-    <t>Zeszyt</t>
-  </si>
-  <si>
-    <t>1,39</t>
-  </si>
-  <si>
-    <t>Ołówek</t>
-  </si>
-  <si>
-    <t>15,58</t>
-  </si>
-  <si>
-    <t>Długopis</t>
-  </si>
-  <si>
-    <t>9,94</t>
-  </si>
-  <si>
-    <t>Linijka</t>
-  </si>
-  <si>
-    <t>8,79</t>
-  </si>
-  <si>
-    <t>Gumka</t>
-  </si>
-  <si>
-    <t>26,36</t>
-  </si>
-  <si>
-    <t>Razem Styczeń:</t>
-  </si>
-  <si>
-    <t>Luty:</t>
-  </si>
-  <si>
-    <t>13,11</t>
-  </si>
-  <si>
-    <t>15,47</t>
-  </si>
-  <si>
-    <t>9,19</t>
-  </si>
-  <si>
-    <t>30,50</t>
-  </si>
-  <si>
-    <t>15,28</t>
-  </si>
-  <si>
-    <t>Razem Luty:</t>
-  </si>
-  <si>
-    <t>Marzec:</t>
-  </si>
-  <si>
-    <t>17,55</t>
-  </si>
-  <si>
-    <t>23,13</t>
-  </si>
-  <si>
-    <t>16,98</t>
-  </si>
-  <si>
-    <t>15,32</t>
-  </si>
-  <si>
-    <t>21,48</t>
-  </si>
-  <si>
-    <t>Razem Marzec:</t>
-  </si>
-  <si>
-    <t>SUMA z 3 miesięcy:</t>
-  </si>
-  <si>
-    <t>ZADANIE 4: ŚREDNIE KLASY</t>
-  </si>
-  <si>
-    <t>Instrukcja:</t>
-  </si>
-  <si>
-    <t>1. W tabeli poniżej znajdują się oceny uczniów z różnych przedmiotów.</t>
-  </si>
-  <si>
-    <t>2. Uzupełnij kolumnę LP (kolejne numery).</t>
-  </si>
-  <si>
-    <t>3. Oblicz średnią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
-  </si>
-  <si>
-    <t>4. Jeżeli średnia ucznia jest większa lub równa 4,5, wpisz "TAK", w przeciwnym razie "NIE" w kolumnie "Czy pasek?".</t>
-  </si>
-  <si>
-    <t>5. Oblicz średnią ocen dla każdego przedmiotu i wpisz w wierszu "Średnia przedmiotu:".</t>
-  </si>
-  <si>
-    <t>6. Oblicz średnią ocen całej klasy (średnią wszystkich ocen w tabeli) i wpisz w komórce obok "Średnia klasy:".</t>
-  </si>
-  <si>
-    <t>LP</t>
-  </si>
-  <si>
-    <t>Imię</t>
-  </si>
-  <si>
-    <t>Nazwisko</t>
-  </si>
-  <si>
-    <t>Biologia</t>
-  </si>
-  <si>
-    <t>Chemia</t>
-  </si>
-  <si>
-    <t>Średnia ucznia</t>
-  </si>
-  <si>
-    <t>Czy pasek?</t>
-  </si>
-  <si>
-    <t>Mikołaj</t>
-  </si>
-  <si>
-    <t>Wojciechowski</t>
-  </si>
-  <si>
-    <t>Jakub</t>
-  </si>
-  <si>
-    <t>Zieliński</t>
-  </si>
-  <si>
-    <t>Wojciech</t>
-  </si>
-  <si>
-    <t>Nowak</t>
-  </si>
-  <si>
-    <t>Średnia przedmiotu:</t>
-  </si>
-  <si>
-    <t>Średnia klasy:</t>
-  </si>
-  <si>
-    <t>ZADANIE 5 - DANE OSOBOWE</t>
-  </si>
-  <si>
-    <t>1. Rozdziel kolumnę "Imię i nazwisko" na dwie osobne kolumny: "Imię" i "Nazwisko"</t>
-  </si>
-  <si>
-    <t>2. Dodaj kolumnę "Lp." i ponumeruj wszystkie wiersze</t>
-  </si>
-  <si>
-    <t>3. Oblicz ilość osób urodzonych w 1998 roku (funkcja LICZ.JEŻELI)</t>
-  </si>
-  <si>
-    <t>4. Znajdź największe zarobki (funkcja MAKS)</t>
-  </si>
-  <si>
-    <t>5. Znajdź najmniejsze zarobki (funkcja MIN)</t>
-  </si>
-  <si>
-    <t>Imię i nazwisko</t>
-  </si>
-  <si>
-    <t>Data urodzenia</t>
-  </si>
-  <si>
-    <t>Zarobki (zł)</t>
-  </si>
-  <si>
-    <t>Zuzanna Jaworska</t>
-  </si>
-  <si>
-    <t>23.10.2003</t>
-  </si>
-  <si>
-    <t>5 988,00 zł</t>
-  </si>
-  <si>
-    <t>Lena Rogalska</t>
-  </si>
-  <si>
-    <t>27.10.1980</t>
-  </si>
-  <si>
-    <t>6 854,00 zł</t>
-  </si>
-  <si>
-    <t>Zuzanna Górska</t>
-  </si>
-  <si>
-    <t>22.08.2000</t>
-  </si>
-  <si>
-    <t>4 035,00 zł</t>
-  </si>
-  <si>
-    <t>Aleksander Jankowski</t>
-  </si>
-  <si>
-    <t>20.09.1989</t>
-  </si>
-  <si>
-    <t>5 318,00 zł</t>
-  </si>
-  <si>
-    <t>Oliwia Lis</t>
-  </si>
-  <si>
-    <t>26.05.1989</t>
-  </si>
-  <si>
-    <t>6 091,00 zł</t>
-  </si>
-  <si>
-    <t>Hanna Urbaniak</t>
-  </si>
-  <si>
-    <t>21.02.1987</t>
-  </si>
-  <si>
-    <t>11 443,00 zł</t>
-  </si>
-  <si>
-    <t>Aleksander Kaczmarek</t>
-  </si>
-  <si>
-    <t>17.05.1987</t>
-  </si>
-  <si>
-    <t>4 101,00 zł</t>
-  </si>
-  <si>
-    <t>Mikołaj Kwiatkowski</t>
-  </si>
-  <si>
-    <t>06.10.2001</t>
-  </si>
-  <si>
-    <t>2 672,00 zł</t>
-  </si>
-  <si>
-    <t>Lena Sikorska</t>
-  </si>
-  <si>
-    <t>05.04.1998</t>
-  </si>
-  <si>
-    <t>5 345,00 zł</t>
-  </si>
-  <si>
-    <t>Szymon Wiśniewski</t>
-  </si>
-  <si>
-    <t>10.12.1989</t>
-  </si>
-  <si>
-    <t>4 430,00 zł</t>
-  </si>
-  <si>
-    <t>20.04.1997</t>
-  </si>
-  <si>
-    <t>8 258,00 zł</t>
-  </si>
-  <si>
-    <t>Jakub Woźniak</t>
-  </si>
-  <si>
-    <t>02.05.1990</t>
-  </si>
-  <si>
-    <t>7 363,00 zł</t>
-  </si>
-  <si>
-    <t>Natalia Czarnecka</t>
-  </si>
-  <si>
-    <t>20.08.1999</t>
-  </si>
-  <si>
-    <t>10 172,00 zł</t>
+    <t>09.12.1995</t>
+  </si>
+  <si>
+    <t>4 487,00 zł</t>
   </si>
   <si>
     <t>OBLICZENIA:</t>
@@ -574,319 +646,289 @@
     <t>Województwo</t>
   </si>
   <si>
-    <t>Luty</t>
-  </si>
-  <si>
-    <t>Smartphone 5G 128GB</t>
-  </si>
-  <si>
-    <t>1 456,00 zł</t>
+    <t>czerwiec</t>
+  </si>
+  <si>
+    <t>Mikrofon studyjny</t>
+  </si>
+  <si>
+    <t>1 030,00 zł</t>
+  </si>
+  <si>
+    <t>1 195,00 zł</t>
+  </si>
+  <si>
+    <t>Agnieszka Wojciechowska</t>
+  </si>
+  <si>
+    <t>dolnośląskie</t>
+  </si>
+  <si>
+    <t>Smart TV 55"</t>
+  </si>
+  <si>
+    <t>1 435,00 zł</t>
+  </si>
+  <si>
+    <t>1 607,00 zł</t>
+  </si>
+  <si>
+    <t>Maria Dąbrowska</t>
+  </si>
+  <si>
+    <t>pomorskie</t>
+  </si>
+  <si>
+    <t>styczeń</t>
+  </si>
+  <si>
+    <t>1 407,00 zł</t>
+  </si>
+  <si>
+    <t>1 899,00 zł</t>
+  </si>
+  <si>
+    <t>Monika Krawczyk</t>
+  </si>
+  <si>
+    <t>śląskie</t>
+  </si>
+  <si>
+    <t>Płyta główna</t>
+  </si>
+  <si>
+    <t>1 364,00 zł</t>
+  </si>
+  <si>
+    <t>1 664,00 zł</t>
+  </si>
+  <si>
+    <t>Krzysztof Lewandowski</t>
+  </si>
+  <si>
+    <t>małopolskie</t>
+  </si>
+  <si>
+    <t>marzec</t>
+  </si>
+  <si>
+    <t>Głośnik Bluetooth</t>
+  </si>
+  <si>
+    <t>1 114,00 zł</t>
+  </si>
+  <si>
+    <t>1 493,00 zł</t>
+  </si>
+  <si>
+    <t>Paweł Kwiatkowski</t>
+  </si>
+  <si>
+    <t>kujawsko-pomorskie</t>
+  </si>
+  <si>
+    <t>Laptop Gaming i7</t>
+  </si>
+  <si>
+    <t>1 394,00 zł</t>
+  </si>
+  <si>
+    <t>1 826,00 zł</t>
+  </si>
+  <si>
+    <t>łódzkie</t>
+  </si>
+  <si>
+    <t>maj</t>
+  </si>
+  <si>
+    <t>1 285,00 zł</t>
+  </si>
+  <si>
+    <t>1 696,00 zł</t>
+  </si>
+  <si>
+    <t>Jan Kowalski</t>
+  </si>
+  <si>
+    <t>Procesor i5</t>
+  </si>
+  <si>
+    <t>1 332,00 zł</t>
+  </si>
+  <si>
+    <t>1 745,00 zł</t>
+  </si>
+  <si>
+    <t>Odtwarzacz DVD</t>
+  </si>
+  <si>
+    <t>1 157,00 zł</t>
+  </si>
+  <si>
+    <t>1 388,00 zł</t>
+  </si>
+  <si>
+    <t>kwiecień</t>
+  </si>
+  <si>
+    <t>Zasilacz 650W</t>
+  </si>
+  <si>
+    <t>606,00 zł</t>
+  </si>
+  <si>
+    <t>685,00 zł</t>
+  </si>
+  <si>
+    <t>Michał Jankowski</t>
+  </si>
+  <si>
+    <t>Projektor multimedialny</t>
+  </si>
+  <si>
+    <t>1 314,00 zł</t>
+  </si>
+  <si>
+    <t>1 734,00 zł</t>
+  </si>
+  <si>
+    <t>Tomasz Kamiński</t>
+  </si>
+  <si>
+    <t>opolskie</t>
+  </si>
+  <si>
+    <t>Obudowa gamingowa</t>
+  </si>
+  <si>
+    <t>1 297,00 zł</t>
+  </si>
+  <si>
+    <t>1 556,00 zł</t>
+  </si>
+  <si>
+    <t>Piotr Wiśniewski</t>
+  </si>
+  <si>
+    <t>Dysk SSD 1TB</t>
+  </si>
+  <si>
+    <t>1 044,00 zł</t>
+  </si>
+  <si>
+    <t>1 326,00 zł</t>
+  </si>
+  <si>
+    <t>Ewa Kowalczyk</t>
+  </si>
+  <si>
+    <t>Słuchawki bezprzewodowe</t>
+  </si>
+  <si>
+    <t>1 638,00 zł</t>
+  </si>
+  <si>
+    <t>Andrzej Woźniak</t>
+  </si>
+  <si>
+    <t>zachodniopomorskie</t>
+  </si>
+  <si>
+    <t>Smartwatch</t>
+  </si>
+  <si>
+    <t>1 113,00 zł</t>
+  </si>
+  <si>
+    <t>1 414,00 zł</t>
+  </si>
+  <si>
+    <t>531,00 zł</t>
+  </si>
+  <si>
+    <t>743,00 zł</t>
+  </si>
+  <si>
+    <t>Anna Nowak</t>
+  </si>
+  <si>
+    <t>lubuskie</t>
+  </si>
+  <si>
+    <t>816,00 zł</t>
+  </si>
+  <si>
+    <t>1 077,00 zł</t>
+  </si>
+  <si>
+    <t>podlaskie</t>
+  </si>
+  <si>
+    <t>1 275,00 zł</t>
   </si>
   <si>
     <t>1 747,00 zł</t>
   </si>
   <si>
-    <t>Maria Dąbrowska</t>
-  </si>
-  <si>
-    <t>małopolskie</t>
-  </si>
-  <si>
-    <t>Marzec</t>
-  </si>
-  <si>
-    <t>Kamera internetowa</t>
-  </si>
-  <si>
-    <t>932,00 zł</t>
-  </si>
-  <si>
-    <t>1 268,00 zł</t>
+    <t>1 283,00 zł</t>
+  </si>
+  <si>
+    <t>1 719,00 zł</t>
+  </si>
+  <si>
+    <t>mazowieckie</t>
+  </si>
+  <si>
+    <t>luty</t>
+  </si>
+  <si>
+    <t>1 083,00 zł</t>
+  </si>
+  <si>
+    <t>1 202,00 zł</t>
+  </si>
+  <si>
+    <t>642,00 zł</t>
+  </si>
+  <si>
+    <t>867,00 zł</t>
+  </si>
+  <si>
+    <t>Tablet 10"</t>
+  </si>
+  <si>
+    <t>1 333,00 zł</t>
+  </si>
+  <si>
+    <t>1 600,00 zł</t>
   </si>
   <si>
     <t>Marcin Zieliński</t>
   </si>
   <si>
-    <t>Styczeń</t>
-  </si>
-  <si>
-    <t>Smartwatch</t>
-  </si>
-  <si>
-    <t>1 457,00 zł</t>
-  </si>
-  <si>
-    <t>1 734,00 zł</t>
-  </si>
-  <si>
-    <t>Tomasz Kamiński</t>
-  </si>
-  <si>
-    <t>podkarpackie</t>
-  </si>
-  <si>
-    <t>1 460,00 zł</t>
-  </si>
-  <si>
-    <t>1 664,00 zł</t>
-  </si>
-  <si>
-    <t>Agnieszka Wojciechowska</t>
-  </si>
-  <si>
-    <t>lubelskie</t>
-  </si>
-  <si>
-    <t>705,00 zł</t>
-  </si>
-  <si>
-    <t>909,00 zł</t>
-  </si>
-  <si>
-    <t>pomorskie</t>
-  </si>
-  <si>
-    <t>Dysk SSD 1TB</t>
-  </si>
-  <si>
-    <t>1 438,00 zł</t>
-  </si>
-  <si>
-    <t>1 855,00 zł</t>
-  </si>
-  <si>
-    <t>dolnośląskie</t>
-  </si>
-  <si>
-    <t>Smart TV 55"</t>
-  </si>
-  <si>
-    <t>900,00 zł</t>
-  </si>
-  <si>
-    <t>1 053,00 zł</t>
-  </si>
-  <si>
-    <t>Jan Kowalski</t>
-  </si>
-  <si>
-    <t>śląskie</t>
-  </si>
-  <si>
-    <t>Procesor i5</t>
-  </si>
-  <si>
-    <t>1 311,00 zł</t>
-  </si>
-  <si>
-    <t>1 495,00 zł</t>
-  </si>
-  <si>
-    <t>warmińsko-mazurskie</t>
-  </si>
-  <si>
-    <t>966,00 zł</t>
-  </si>
-  <si>
-    <t>1 159,00 zł</t>
-  </si>
-  <si>
-    <t>Andrzej Woźniak</t>
-  </si>
-  <si>
-    <t>lubuskie</t>
-  </si>
-  <si>
-    <t>1 383,00 zł</t>
-  </si>
-  <si>
-    <t>1 604,00 zł</t>
-  </si>
-  <si>
-    <t>Paweł Kwiatkowski</t>
-  </si>
-  <si>
-    <t>mazowieckie</t>
-  </si>
-  <si>
-    <t>Drukarka laserowa</t>
-  </si>
-  <si>
-    <t>1 033,00 zł</t>
-  </si>
-  <si>
-    <t>1 312,00 zł</t>
-  </si>
-  <si>
-    <t>Krzysztof Lewandowski</t>
-  </si>
-  <si>
-    <t>Zasilacz 650W</t>
-  </si>
-  <si>
-    <t>1 059,00 zł</t>
-  </si>
-  <si>
-    <t>1 387,00 zł</t>
-  </si>
-  <si>
-    <t>Mysz gamingowa</t>
-  </si>
-  <si>
-    <t>1 096,00 zł</t>
-  </si>
-  <si>
-    <t>1 392,00 zł</t>
-  </si>
-  <si>
-    <t>kujawsko-pomorskie</t>
-  </si>
-  <si>
     <t>Router Wi-Fi 6</t>
   </si>
   <si>
-    <t>1 102,00 zł</t>
-  </si>
-  <si>
-    <t>1 378,00 zł</t>
+    <t>952,00 zł</t>
+  </si>
+  <si>
+    <t>1 228,00 zł</t>
+  </si>
+  <si>
+    <t>1 360,00 zł</t>
+  </si>
+  <si>
+    <t>1 863,00 zł</t>
   </si>
   <si>
     <t>Konsola do gier</t>
   </si>
   <si>
-    <t>1 413,00 zł</t>
-  </si>
-  <si>
-    <t>1 795,00 zł</t>
-  </si>
-  <si>
-    <t>łódzkie</t>
-  </si>
-  <si>
-    <t>Słuchawki bezprzewodowe</t>
-  </si>
-  <si>
-    <t>1 175,00 zł</t>
-  </si>
-  <si>
-    <t>1 434,00 zł</t>
-  </si>
-  <si>
-    <t>Michał Jankowski</t>
-  </si>
-  <si>
-    <t>podlaskie</t>
-  </si>
-  <si>
-    <t>1 081,00 zł</t>
-  </si>
-  <si>
-    <t>1 243,00 zł</t>
-  </si>
-  <si>
-    <t>Katarzyna Mazur</t>
-  </si>
-  <si>
-    <t>605,00 zł</t>
-  </si>
-  <si>
-    <t>847,00 zł</t>
-  </si>
-  <si>
-    <t>Pamięć RAM 16GB</t>
-  </si>
-  <si>
-    <t>1 299,00 zł</t>
-  </si>
-  <si>
-    <t>1 728,00 zł</t>
-  </si>
-  <si>
-    <t>Magdalena Szymańska</t>
-  </si>
-  <si>
-    <t>świętokrzyskie</t>
-  </si>
-  <si>
-    <t>1 423,00 zł</t>
-  </si>
-  <si>
-    <t>1 907,00 zł</t>
-  </si>
-  <si>
-    <t>Mikrofon studyjny</t>
-  </si>
-  <si>
-    <t>735,00 zł</t>
-  </si>
-  <si>
-    <t>926,00 zł</t>
-  </si>
-  <si>
-    <t>Monika Krawczyk</t>
-  </si>
-  <si>
-    <t>Klawiatura mechaniczna</t>
-  </si>
-  <si>
-    <t>1 315,00 zł</t>
-  </si>
-  <si>
-    <t>1 499,00 zł</t>
-  </si>
-  <si>
-    <t>Projektor multimedialny</t>
-  </si>
-  <si>
-    <t>1 090,00 zł</t>
-  </si>
-  <si>
-    <t>1 526,00 zł</t>
-  </si>
-  <si>
-    <t>Anna Nowak</t>
-  </si>
-  <si>
-    <t>Powerbank 20000mAh</t>
-  </si>
-  <si>
-    <t>609,00 zł</t>
-  </si>
-  <si>
-    <t>786,00 zł</t>
-  </si>
-  <si>
-    <t>Obudowa gamingowa</t>
-  </si>
-  <si>
-    <t>1 216,00 zł</t>
-  </si>
-  <si>
-    <t>1 508,00 zł</t>
-  </si>
-  <si>
-    <t>Karta graficzna RTX</t>
-  </si>
-  <si>
-    <t>1 458,00 zł</t>
-  </si>
-  <si>
-    <t>1 881,00 zł</t>
-  </si>
-  <si>
-    <t>1 447,00 zł</t>
-  </si>
-  <si>
-    <t>1 606,00 zł</t>
-  </si>
-  <si>
-    <t>Barbara Kozłowska</t>
-  </si>
-  <si>
-    <t>Głośnik Bluetooth</t>
-  </si>
-  <si>
-    <t>835,00 zł</t>
+    <t>1 293,00 zł</t>
+  </si>
+  <si>
+    <t>1 461,00 zł</t>
   </si>
   <si>
     <t>Suma ceny sprzedaży:</t>
@@ -1443,19 +1485,19 @@
         <v>19</v>
       </c>
       <c r="B17" s="3">
+        <v>3</v>
+      </c>
+      <c r="C17" s="3">
         <v>4</v>
       </c>
-      <c r="C17" s="3">
-        <v>6</v>
-      </c>
       <c r="D17" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E17" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F17" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G17" s="5"/>
     </row>
@@ -1464,19 +1506,19 @@
         <v>20</v>
       </c>
       <c r="B18" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C18" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D18" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E18" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F18" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G18" s="5"/>
     </row>
@@ -1485,19 +1527,19 @@
         <v>21</v>
       </c>
       <c r="B19" s="3">
+        <v>6</v>
+      </c>
+      <c r="C19" s="3">
+        <v>5</v>
+      </c>
+      <c r="D19" s="3">
         <v>3</v>
       </c>
-      <c r="C19" s="3">
-        <v>4</v>
-      </c>
-      <c r="D19" s="3">
+      <c r="E19" s="3">
         <v>5</v>
       </c>
-      <c r="E19" s="3">
-        <v>6</v>
-      </c>
       <c r="F19" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G19" s="5"/>
     </row>
@@ -1506,19 +1548,19 @@
         <v>22</v>
       </c>
       <c r="B20" s="3">
+        <v>5</v>
+      </c>
+      <c r="C20" s="3">
+        <v>6</v>
+      </c>
+      <c r="D20" s="3">
         <v>4</v>
       </c>
-      <c r="C20" s="3">
+      <c r="E20" s="3">
         <v>5</v>
       </c>
-      <c r="D20" s="3">
-        <v>5</v>
-      </c>
-      <c r="E20" s="3">
-        <v>2</v>
-      </c>
       <c r="F20" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G20" s="5"/>
     </row>
@@ -1527,13 +1569,13 @@
         <v>23</v>
       </c>
       <c r="B21" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C21" s="3">
         <v>5</v>
       </c>
       <c r="D21" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E21" s="3">
         <v>4</v>
@@ -1548,19 +1590,19 @@
         <v>24</v>
       </c>
       <c r="B22" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C22" s="3">
         <v>5</v>
       </c>
       <c r="D22" s="3">
+        <v>6</v>
+      </c>
+      <c r="E22" s="3">
         <v>3</v>
       </c>
-      <c r="E22" s="3">
-        <v>5</v>
-      </c>
       <c r="F22" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G22" s="5"/>
     </row>
@@ -1569,19 +1611,19 @@
         <v>25</v>
       </c>
       <c r="B23" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C23" s="3">
+        <v>3</v>
+      </c>
+      <c r="D23" s="3">
         <v>2</v>
       </c>
-      <c r="D23" s="3">
-        <v>4</v>
-      </c>
       <c r="E23" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F23" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G23" s="5"/>
     </row>
@@ -1590,19 +1632,19 @@
         <v>26</v>
       </c>
       <c r="B24" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C24" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D24" s="3">
         <v>4</v>
       </c>
       <c r="E24" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F24" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G24" s="5"/>
     </row>
@@ -1611,19 +1653,19 @@
         <v>27</v>
       </c>
       <c r="B25" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C25" s="3">
+        <v>3</v>
+      </c>
+      <c r="D25" s="3">
         <v>4</v>
       </c>
-      <c r="D25" s="3">
-        <v>3</v>
-      </c>
       <c r="E25" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F25" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G25" s="5"/>
     </row>
@@ -1635,16 +1677,16 @@
         <v>2</v>
       </c>
       <c r="C26" s="3">
+        <v>6</v>
+      </c>
+      <c r="D26" s="3">
+        <v>3</v>
+      </c>
+      <c r="E26" s="3">
         <v>2</v>
       </c>
-      <c r="D26" s="3">
-        <v>2</v>
-      </c>
-      <c r="E26" s="3">
-        <v>3</v>
-      </c>
       <c r="F26" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G26" s="5"/>
     </row>
@@ -1656,16 +1698,16 @@
         <v>6</v>
       </c>
       <c r="C27" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D27" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E27" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F27" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G27" s="5"/>
     </row>
@@ -1674,19 +1716,19 @@
         <v>30</v>
       </c>
       <c r="B28" s="3">
+        <v>3</v>
+      </c>
+      <c r="C28" s="3">
         <v>5</v>
-      </c>
-      <c r="C28" s="3">
-        <v>6</v>
       </c>
       <c r="D28" s="3">
         <v>3</v>
       </c>
       <c r="E28" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F28" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G28" s="5"/>
     </row>
@@ -1808,7 +1850,7 @@
         <v>47</v>
       </c>
       <c r="D13" s="3">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E13" s="3"/>
     </row>
@@ -1823,7 +1865,7 @@
         <v>49</v>
       </c>
       <c r="D14" s="3">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E14" s="3"/>
     </row>
@@ -1838,7 +1880,7 @@
         <v>51</v>
       </c>
       <c r="D15" s="3">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E15" s="3"/>
     </row>
@@ -1853,7 +1895,7 @@
         <v>53</v>
       </c>
       <c r="D16" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E16" s="3"/>
     </row>
@@ -1868,7 +1910,7 @@
         <v>55</v>
       </c>
       <c r="D17" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E17" s="3"/>
     </row>
@@ -1883,7 +1925,7 @@
         <v>57</v>
       </c>
       <c r="D18" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E18" s="3"/>
     </row>
@@ -2000,7 +2042,7 @@
         <v>66</v>
       </c>
       <c r="C15" s="3">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D15" s="3"/>
     </row>
@@ -2012,7 +2054,7 @@
         <v>68</v>
       </c>
       <c r="C16" s="3">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16" s="3"/>
     </row>
@@ -2024,7 +2066,7 @@
         <v>70</v>
       </c>
       <c r="C17" s="3">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="D17" s="3"/>
     </row>
@@ -2036,7 +2078,7 @@
         <v>72</v>
       </c>
       <c r="C18" s="3">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D18" s="3"/>
     </row>
@@ -2048,7 +2090,7 @@
         <v>74</v>
       </c>
       <c r="C19" s="3">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="D19" s="3"/>
     </row>
@@ -2096,7 +2138,7 @@
         <v>77</v>
       </c>
       <c r="C24" s="3">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="D24" s="3"/>
     </row>
@@ -2108,7 +2150,7 @@
         <v>78</v>
       </c>
       <c r="C25" s="3">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D25" s="3"/>
     </row>
@@ -2120,7 +2162,7 @@
         <v>79</v>
       </c>
       <c r="C26" s="3">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D26" s="3"/>
     </row>
@@ -2132,7 +2174,7 @@
         <v>80</v>
       </c>
       <c r="C27" s="3">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="D27" s="3"/>
     </row>
@@ -2144,7 +2186,7 @@
         <v>81</v>
       </c>
       <c r="C28" s="3">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="D28" s="3"/>
     </row>
@@ -2192,7 +2234,7 @@
         <v>84</v>
       </c>
       <c r="C33" s="3">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="D33" s="3"/>
     </row>
@@ -2204,7 +2246,7 @@
         <v>85</v>
       </c>
       <c r="C34" s="3">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D34" s="3"/>
     </row>
@@ -2216,7 +2258,7 @@
         <v>86</v>
       </c>
       <c r="C35" s="3">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="D35" s="3"/>
     </row>
@@ -2228,7 +2270,7 @@
         <v>87</v>
       </c>
       <c r="C36" s="3">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D36" s="3"/>
     </row>
@@ -2240,7 +2282,7 @@
         <v>88</v>
       </c>
       <c r="C37" s="3">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D37" s="3"/>
     </row>
@@ -2274,10 +2316,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A18" sqref="A18:L18"/>
+      <selection activeCell="A21" sqref="A21:L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2383,7 +2425,7 @@
         <v>107</v>
       </c>
       <c r="D12" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E12" s="3">
         <v>6</v>
@@ -2395,10 +2437,10 @@
         <v>6</v>
       </c>
       <c r="H12" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I12" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J12" s="3">
         <v>6</v>
@@ -2412,28 +2454,28 @@
         <v>108</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D13" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E13" s="3">
+        <v>4</v>
+      </c>
+      <c r="F13" s="3">
+        <v>6</v>
+      </c>
+      <c r="G13" s="3">
+        <v>5</v>
+      </c>
+      <c r="H13" s="3">
+        <v>5</v>
+      </c>
+      <c r="I13" s="3">
+        <v>6</v>
+      </c>
+      <c r="J13" s="3">
         <v>2</v>
-      </c>
-      <c r="F13" s="3">
-        <v>5</v>
-      </c>
-      <c r="G13" s="3">
-        <v>2</v>
-      </c>
-      <c r="H13" s="3">
-        <v>6</v>
-      </c>
-      <c r="I13" s="3">
-        <v>2</v>
-      </c>
-      <c r="J13" s="3">
-        <v>5</v>
       </c>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
@@ -2441,10 +2483,10 @@
     <row r="14" spans="1:12">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D14" s="3">
         <v>3</v>
@@ -2453,19 +2495,19 @@
         <v>2</v>
       </c>
       <c r="F14" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G14" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H14" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I14" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J14" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
@@ -2473,31 +2515,31 @@
     <row r="15" spans="1:12">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="D15" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E15" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F15" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G15" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H15" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I15" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J15" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
@@ -2505,72 +2547,168 @@
     <row r="16" spans="1:12">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D16" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E16" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F16" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G16" s="3">
         <v>6</v>
       </c>
       <c r="H16" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I16" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J16" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D17" s="3">
+        <v>3</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2</v>
+      </c>
+      <c r="F17" s="3">
+        <v>3</v>
+      </c>
+      <c r="G17" s="3">
+        <v>2</v>
+      </c>
+      <c r="H17" s="3">
+        <v>2</v>
+      </c>
+      <c r="I17" s="3">
+        <v>4</v>
+      </c>
+      <c r="J17" s="3">
+        <v>5</v>
+      </c>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D18" s="3">
+        <v>6</v>
+      </c>
+      <c r="E18" s="3">
+        <v>3</v>
+      </c>
+      <c r="F18" s="3">
+        <v>3</v>
+      </c>
+      <c r="G18" s="3">
+        <v>2</v>
+      </c>
+      <c r="H18" s="3">
+        <v>6</v>
+      </c>
+      <c r="I18" s="3">
+        <v>3</v>
+      </c>
+      <c r="J18" s="3">
+        <v>6</v>
+      </c>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
+      <c r="C19" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D19" s="3">
+        <v>6</v>
+      </c>
+      <c r="E19" s="3">
+        <v>4</v>
+      </c>
+      <c r="F19" s="3">
+        <v>3</v>
+      </c>
+      <c r="G19" s="3">
+        <v>6</v>
+      </c>
+      <c r="H19" s="3">
+        <v>6</v>
+      </c>
+      <c r="I19" s="3">
+        <v>6</v>
+      </c>
+      <c r="J19" s="3">
+        <v>4</v>
+      </c>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:K1"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="D18:L18"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="D21:L21"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2583,10 +2721,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A27" sqref="A27:B29"/>
+      <selection activeCell="A32" sqref="A32:B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2598,7 +2736,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="9" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2608,210 +2746,265 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="12" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>160</v>
+        <v>169</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="13" t="s">
-        <v>161</v>
+      <c r="A26" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" t="s">
-        <v>162</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>165</v>
+      <c r="A27" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>163</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" t="s">
-        <v>164</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>165</v>
+      <c r="A28" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="13" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>186</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>187</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>188</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -2829,10 +3022,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A47" sqref="A47:B51"/>
+      <selection activeCell="A44" sqref="A44:B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2848,7 +3041,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="9" t="s">
-        <v>166</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2858,75 +3051,75 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>167</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>168</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>169</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>171</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>172</v>
+        <v>196</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>173</v>
+        <v>197</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>174</v>
+        <v>198</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>175</v>
+        <v>199</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>176</v>
+        <v>200</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="12" t="s">
-        <v>177</v>
+        <v>201</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>178</v>
+        <v>202</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>179</v>
+        <v>203</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>180</v>
+        <v>204</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>181</v>
+        <v>205</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>182</v>
+        <v>206</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>183</v>
+        <v>207</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2934,22 +3127,22 @@
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>184</v>
+        <v>208</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>185</v>
+        <v>209</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>186</v>
+        <v>210</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>187</v>
+        <v>211</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>188</v>
+        <v>212</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>189</v>
+        <v>213</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2957,22 +3150,22 @@
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>191</v>
+        <v>214</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>192</v>
+        <v>215</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>193</v>
+        <v>216</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>194</v>
+        <v>217</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>189</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -2980,22 +3173,22 @@
         <v>3</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>195</v>
+        <v>219</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>197</v>
+        <v>220</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>198</v>
+        <v>221</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>199</v>
+        <v>222</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>200</v>
+        <v>223</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -3003,22 +3196,22 @@
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>196</v>
+        <v>224</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>201</v>
+        <v>225</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>202</v>
+        <v>226</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>203</v>
+        <v>227</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>204</v>
+        <v>228</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -3026,22 +3219,22 @@
         <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>195</v>
+        <v>229</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>196</v>
+        <v>230</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>205</v>
+        <v>231</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>206</v>
+        <v>232</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>199</v>
+        <v>233</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>207</v>
+        <v>234</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -3049,22 +3242,22 @@
         <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>195</v>
+        <v>229</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>208</v>
+        <v>235</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>209</v>
+        <v>236</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>210</v>
+        <v>237</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>211</v>
+        <v>238</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -3072,22 +3265,22 @@
         <v>7</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>190</v>
+        <v>239</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>212</v>
+        <v>235</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>213</v>
+        <v>240</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>214</v>
+        <v>241</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>215</v>
+        <v>242</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>216</v>
+        <v>238</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -3095,22 +3288,22 @@
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>190</v>
+        <v>229</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>217</v>
+        <v>243</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>218</v>
+        <v>244</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>219</v>
+        <v>245</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>194</v>
+        <v>227</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>220</v>
+        <v>238</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -3118,22 +3311,22 @@
         <v>9</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>185</v>
+        <v>246</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>221</v>
+        <v>247</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>222</v>
+        <v>248</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -3141,22 +3334,22 @@
         <v>10</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>195</v>
+        <v>249</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>208</v>
+        <v>250</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>225</v>
+        <v>251</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>226</v>
+        <v>252</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>227</v>
+        <v>253</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -3164,22 +3357,22 @@
         <v>11</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>195</v>
+        <v>229</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>229</v>
+        <v>254</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>230</v>
+        <v>255</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>231</v>
+        <v>256</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>232</v>
+        <v>257</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>228</v>
+        <v>258</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3187,22 +3380,22 @@
         <v>12</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>184</v>
+        <v>229</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>233</v>
+        <v>259</v>
       </c>
       <c r="D27" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="G27" s="3" t="s">
         <v>234</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3210,22 +3403,22 @@
         <v>13</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>184</v>
+        <v>219</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>236</v>
+        <v>263</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>237</v>
+        <v>264</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>238</v>
+        <v>265</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>223</v>
+        <v>266</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3233,22 +3426,22 @@
         <v>14</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>190</v>
+        <v>229</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>240</v>
+        <v>267</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>242</v>
+        <v>268</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>188</v>
+        <v>269</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>189</v>
+        <v>270</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3256,22 +3449,22 @@
         <v>15</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>184</v>
+        <v>229</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>243</v>
+        <v>271</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>244</v>
+        <v>272</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>245</v>
+        <v>273</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>246</v>
+        <v>218</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3279,22 +3472,22 @@
         <v>16</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>190</v>
+        <v>229</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>248</v>
+        <v>274</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>249</v>
+        <v>275</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>250</v>
+        <v>276</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3302,22 +3495,22 @@
         <v>17</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>195</v>
+        <v>239</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>233</v>
+        <v>209</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>252</v>
+        <v>278</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>253</v>
+        <v>279</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>251</v>
+        <v>280</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3325,22 +3518,22 @@
         <v>18</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>184</v>
+        <v>229</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>196</v>
+        <v>259</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>255</v>
+        <v>281</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>256</v>
+        <v>282</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3348,22 +3541,22 @@
         <v>19</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>184</v>
+        <v>219</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>259</v>
+        <v>284</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>260</v>
+        <v>227</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>261</v>
+        <v>285</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3371,22 +3564,22 @@
         <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>190</v>
+        <v>286</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>262</v>
+        <v>287</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>263</v>
+        <v>288</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>254</v>
+        <v>217</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>207</v>
+        <v>228</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3394,22 +3587,22 @@
         <v>21</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>190</v>
+        <v>239</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>264</v>
+        <v>209</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>265</v>
+        <v>289</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>266</v>
+        <v>290</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3417,22 +3610,22 @@
         <v>22</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>195</v>
+        <v>286</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>268</v>
+        <v>291</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>269</v>
+        <v>292</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>270</v>
+        <v>293</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>250</v>
+        <v>294</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>200</v>
+        <v>228</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3440,22 +3633,22 @@
         <v>23</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>195</v>
+        <v>286</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>271</v>
+        <v>295</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>272</v>
+        <v>296</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>273</v>
+        <v>297</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3463,22 +3656,22 @@
         <v>24</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>184</v>
+        <v>229</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>275</v>
+        <v>291</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>276</v>
+        <v>298</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>277</v>
+        <v>299</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>203</v>
+        <v>269</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>204</v>
+        <v>228</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3486,136 +3679,67 @@
         <v>25</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>184</v>
+        <v>208</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>278</v>
+        <v>300</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>279</v>
+        <v>301</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>280</v>
+        <v>302</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>274</v>
+        <v>222</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="3">
-        <v>26</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="3">
-        <v>27</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="E42" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>207</v>
-      </c>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="3">
-        <v>28</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>224</v>
+      <c r="A43" s="13" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" t="s">
+        <v>303</v>
+      </c>
+      <c r="B44" s="14" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" t="s">
+        <v>304</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="13" t="s">
-        <v>161</v>
+      <c r="A46" t="s">
+        <v>305</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>289</v>
+        <v>306</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>165</v>
+        <v>189</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
-      <c r="A49" t="s">
-        <v>291</v>
-      </c>
-      <c r="B49" s="14" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="A50" t="s">
-        <v>292</v>
-      </c>
-      <c r="B50" s="14" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="A51" t="s">
-        <v>293</v>
-      </c>
-      <c r="B51" s="14" t="s">
-        <v>165</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>

--- a/excel/collective/zestawy_dla_uczniow/zestaw_016.xlsx
+++ b/excel/collective/zestawy_dla_uczniow/zestaw_016.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="214">
   <si>
     <t>ZESTAW ZADAŃ NR 16 - CZĘŚĆ 1</t>
   </si>
@@ -118,21 +118,6 @@
     <t>ŚREDNIA UCZNIA:</t>
   </si>
   <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(B17:B28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(C17:C28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(D17:D28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(E17:E28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(F17:F28);".";",")</t>
-  </si>
-  <si>
     <t>ZESTAW ZADAŃ NR 16 - CZĘŚĆ 2: ZAKUPY</t>
   </si>
   <si>
@@ -163,39 +148,21 @@
     <t>Temperówka</t>
   </si>
   <si>
-    <t>1,50</t>
-  </si>
-  <si>
     <t>Ołówek HB</t>
   </si>
   <si>
-    <t>0,80</t>
-  </si>
-  <si>
     <t>Pędzelek</t>
   </si>
   <si>
-    <t>6,60</t>
-  </si>
-  <si>
     <t>Cyrkiel</t>
   </si>
   <si>
-    <t>9,00</t>
-  </si>
-  <si>
     <t>Długopis niebieski</t>
   </si>
   <si>
-    <t>2,70</t>
-  </si>
-  <si>
     <t>Farby plakatowe 12 kolorów</t>
   </si>
   <si>
-    <t>21,50</t>
-  </si>
-  <si>
     <t>SUMA:</t>
   </si>
   <si>
@@ -220,75 +187,30 @@
     <t>Zeszyt</t>
   </si>
   <si>
-    <t>3,71</t>
-  </si>
-  <si>
     <t>Ołówek</t>
   </si>
   <si>
-    <t>14,40</t>
-  </si>
-  <si>
     <t>Długopis</t>
   </si>
   <si>
-    <t>7,63</t>
-  </si>
-  <si>
     <t>Linijka</t>
   </si>
   <si>
-    <t>21,70</t>
-  </si>
-  <si>
     <t>Gumka</t>
   </si>
   <si>
-    <t>25,52</t>
-  </si>
-  <si>
     <t>Razem Styczeń:</t>
   </si>
   <si>
     <t>Luty:</t>
   </si>
   <si>
-    <t>13,29</t>
-  </si>
-  <si>
-    <t>27,87</t>
-  </si>
-  <si>
-    <t>7,69</t>
-  </si>
-  <si>
-    <t>23,23</t>
-  </si>
-  <si>
-    <t>15,82</t>
-  </si>
-  <si>
     <t>Razem Luty:</t>
   </si>
   <si>
     <t>Marzec:</t>
   </si>
   <si>
-    <t>15,73</t>
-  </si>
-  <si>
-    <t>23,65</t>
-  </si>
-  <si>
-    <t>6,37</t>
-  </si>
-  <si>
-    <t>16,39</t>
-  </si>
-  <si>
-    <t>18,89</t>
-  </si>
-  <si>
     <t>Razem Marzec:</t>
   </si>
   <si>
@@ -307,7 +229,7 @@
     <t>2. Uzupełnij kolumnę LP (kolejne numery).</t>
   </si>
   <si>
-    <t>3. Oblicz średnią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
+    <t>3. Oblicz średią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
   </si>
   <si>
     <t>4. Jeżeli średnia ucznia jest większa lub równa 4,5, wpisz "TAK", w przeciwnym razie "NIE" w kolumnie "Czy pasek?".</t>
@@ -421,162 +343,108 @@
     <t>17.08.1998</t>
   </si>
   <si>
-    <t>12 973,00 zł</t>
-  </si>
-  <si>
     <t>Antoni Mazur</t>
   </si>
   <si>
     <t>20.01.1999</t>
   </si>
   <si>
-    <t>5 850,00 zł</t>
-  </si>
-  <si>
     <t>Jan Lewandowski</t>
   </si>
   <si>
     <t>13.01.1989</t>
   </si>
   <si>
-    <t>12 908,00 zł</t>
-  </si>
-  <si>
     <t>Hanna Czarnecka</t>
   </si>
   <si>
     <t>27.08.1992</t>
   </si>
   <si>
-    <t>7 920,00 zł</t>
-  </si>
-  <si>
     <t>Mikołaj Kamiński</t>
   </si>
   <si>
     <t>03.01.1992</t>
   </si>
   <si>
-    <t>8 954,00 zł</t>
-  </si>
-  <si>
     <t>Szymon Kowalczyk</t>
   </si>
   <si>
     <t>14.03.1981</t>
   </si>
   <si>
-    <t>11 920,00 zł</t>
-  </si>
-  <si>
     <t>Julia Czarnecka</t>
   </si>
   <si>
     <t>23.05.1977</t>
   </si>
   <si>
-    <t>12 711,00 zł</t>
-  </si>
-  <si>
     <t>Jakub Kowalczyk</t>
   </si>
   <si>
     <t>19.01.1987</t>
   </si>
   <si>
-    <t>5 240,00 zł</t>
-  </si>
-  <si>
     <t>Emilia Kubiak</t>
   </si>
   <si>
     <t>20.06.1988</t>
   </si>
   <si>
-    <t>14 542,00 zł</t>
-  </si>
-  <si>
     <t>Aleksander Dąbrowski</t>
   </si>
   <si>
     <t>02.12.1988</t>
   </si>
   <si>
-    <t>4 332,00 zł</t>
-  </si>
-  <si>
     <t>Wojciech Kowalski</t>
   </si>
   <si>
     <t>26.08.1997</t>
   </si>
   <si>
-    <t>8 633,00 zł</t>
-  </si>
-  <si>
     <t>Hanna Jaworska</t>
   </si>
   <si>
     <t>11.09.2001</t>
   </si>
   <si>
-    <t>14 917,00 zł</t>
-  </si>
-  <si>
     <t>Maja Piekarska</t>
   </si>
   <si>
     <t>09.04.1976</t>
   </si>
   <si>
-    <t>14 869,00 zł</t>
-  </si>
-  <si>
     <t>Anna Sadowska</t>
   </si>
   <si>
     <t>20.02.2001</t>
   </si>
   <si>
-    <t>10 936,00 zł</t>
-  </si>
-  <si>
     <t>Wojciech Dąbrowski</t>
   </si>
   <si>
     <t>03.08.1982</t>
   </si>
   <si>
-    <t>6 104,00 zł</t>
-  </si>
-  <si>
     <t>Anna Wójcik</t>
   </si>
   <si>
     <t>03.01.1979</t>
   </si>
   <si>
-    <t>6 864,00 zł</t>
-  </si>
-  <si>
     <t>Zuzanna Borkowska</t>
   </si>
   <si>
     <t>14.05.1981</t>
   </si>
   <si>
-    <t>4 062,00 zł</t>
-  </si>
-  <si>
     <t>Zuzanna Maciejewska</t>
   </si>
   <si>
     <t>09.12.1995</t>
   </si>
   <si>
-    <t>4 487,00 zł</t>
-  </si>
-  <si>
     <t>OBLICZENIA:</t>
   </si>
   <si>
@@ -589,9 +457,6 @@
     <t>Najmniejsze zarobki:</t>
   </si>
   <si>
-    <t>=...</t>
-  </si>
-  <si>
     <t>ZADANIE 6 - ANALIZA SPRZEDAŻY</t>
   </si>
   <si>
@@ -652,12 +517,6 @@
     <t>Mikrofon studyjny</t>
   </si>
   <si>
-    <t>1 030,00 zł</t>
-  </si>
-  <si>
-    <t>1 195,00 zł</t>
-  </si>
-  <si>
     <t>Agnieszka Wojciechowska</t>
   </si>
   <si>
@@ -667,12 +526,6 @@
     <t>Smart TV 55"</t>
   </si>
   <si>
-    <t>1 435,00 zł</t>
-  </si>
-  <si>
-    <t>1 607,00 zł</t>
-  </si>
-  <si>
     <t>Maria Dąbrowska</t>
   </si>
   <si>
@@ -682,12 +535,6 @@
     <t>styczeń</t>
   </si>
   <si>
-    <t>1 407,00 zł</t>
-  </si>
-  <si>
-    <t>1 899,00 zł</t>
-  </si>
-  <si>
     <t>Monika Krawczyk</t>
   </si>
   <si>
@@ -697,12 +544,6 @@
     <t>Płyta główna</t>
   </si>
   <si>
-    <t>1 364,00 zł</t>
-  </si>
-  <si>
-    <t>1 664,00 zł</t>
-  </si>
-  <si>
     <t>Krzysztof Lewandowski</t>
   </si>
   <si>
@@ -715,12 +556,6 @@
     <t>Głośnik Bluetooth</t>
   </si>
   <si>
-    <t>1 114,00 zł</t>
-  </si>
-  <si>
-    <t>1 493,00 zł</t>
-  </si>
-  <si>
     <t>Paweł Kwiatkowski</t>
   </si>
   <si>
@@ -730,69 +565,33 @@
     <t>Laptop Gaming i7</t>
   </si>
   <si>
-    <t>1 394,00 zł</t>
-  </si>
-  <si>
-    <t>1 826,00 zł</t>
-  </si>
-  <si>
     <t>łódzkie</t>
   </si>
   <si>
     <t>maj</t>
   </si>
   <si>
-    <t>1 285,00 zł</t>
-  </si>
-  <si>
-    <t>1 696,00 zł</t>
-  </si>
-  <si>
     <t>Jan Kowalski</t>
   </si>
   <si>
     <t>Procesor i5</t>
   </si>
   <si>
-    <t>1 332,00 zł</t>
-  </si>
-  <si>
-    <t>1 745,00 zł</t>
-  </si>
-  <si>
     <t>Odtwarzacz DVD</t>
   </si>
   <si>
-    <t>1 157,00 zł</t>
-  </si>
-  <si>
-    <t>1 388,00 zł</t>
-  </si>
-  <si>
     <t>kwiecień</t>
   </si>
   <si>
     <t>Zasilacz 650W</t>
   </si>
   <si>
-    <t>606,00 zł</t>
-  </si>
-  <si>
-    <t>685,00 zł</t>
-  </si>
-  <si>
     <t>Michał Jankowski</t>
   </si>
   <si>
     <t>Projektor multimedialny</t>
   </si>
   <si>
-    <t>1 314,00 zł</t>
-  </si>
-  <si>
-    <t>1 734,00 zł</t>
-  </si>
-  <si>
     <t>Tomasz Kamiński</t>
   </si>
   <si>
@@ -802,33 +601,18 @@
     <t>Obudowa gamingowa</t>
   </si>
   <si>
-    <t>1 297,00 zł</t>
-  </si>
-  <si>
-    <t>1 556,00 zł</t>
-  </si>
-  <si>
     <t>Piotr Wiśniewski</t>
   </si>
   <si>
     <t>Dysk SSD 1TB</t>
   </si>
   <si>
-    <t>1 044,00 zł</t>
-  </si>
-  <si>
-    <t>1 326,00 zł</t>
-  </si>
-  <si>
     <t>Ewa Kowalczyk</t>
   </si>
   <si>
     <t>Słuchawki bezprzewodowe</t>
   </si>
   <si>
-    <t>1 638,00 zł</t>
-  </si>
-  <si>
     <t>Andrzej Woźniak</t>
   </si>
   <si>
@@ -838,97 +622,31 @@
     <t>Smartwatch</t>
   </si>
   <si>
-    <t>1 113,00 zł</t>
-  </si>
-  <si>
-    <t>1 414,00 zł</t>
-  </si>
-  <si>
-    <t>531,00 zł</t>
-  </si>
-  <si>
-    <t>743,00 zł</t>
-  </si>
-  <si>
     <t>Anna Nowak</t>
   </si>
   <si>
     <t>lubuskie</t>
   </si>
   <si>
-    <t>816,00 zł</t>
-  </si>
-  <si>
-    <t>1 077,00 zł</t>
-  </si>
-  <si>
     <t>podlaskie</t>
   </si>
   <si>
-    <t>1 275,00 zł</t>
-  </si>
-  <si>
-    <t>1 747,00 zł</t>
-  </si>
-  <si>
-    <t>1 283,00 zł</t>
-  </si>
-  <si>
-    <t>1 719,00 zł</t>
-  </si>
-  <si>
     <t>mazowieckie</t>
   </si>
   <si>
     <t>luty</t>
   </si>
   <si>
-    <t>1 083,00 zł</t>
-  </si>
-  <si>
-    <t>1 202,00 zł</t>
-  </si>
-  <si>
-    <t>642,00 zł</t>
-  </si>
-  <si>
-    <t>867,00 zł</t>
-  </si>
-  <si>
     <t>Tablet 10"</t>
   </si>
   <si>
-    <t>1 333,00 zł</t>
-  </si>
-  <si>
-    <t>1 600,00 zł</t>
-  </si>
-  <si>
     <t>Marcin Zieliński</t>
   </si>
   <si>
     <t>Router Wi-Fi 6</t>
   </si>
   <si>
-    <t>952,00 zł</t>
-  </si>
-  <si>
-    <t>1 228,00 zł</t>
-  </si>
-  <si>
-    <t>1 360,00 zł</t>
-  </si>
-  <si>
-    <t>1 863,00 zł</t>
-  </si>
-  <si>
     <t>Konsola do gier</t>
-  </si>
-  <si>
-    <t>1 293,00 zł</t>
-  </si>
-  <si>
-    <t>1 461,00 zł</t>
   </si>
   <si>
     <t>Suma ceny sprzedaży:</t>
@@ -950,7 +668,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.00&quot; zł&quot;"/>
+  </numFmts>
   <fonts count="5">
     <font>
       <b val="0"/>
@@ -1007,14 +727,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9EAD3"/>
-        <bgColor rgb="FFD9EAD3"/>
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
-        <bgColor rgb="FFFFF2CC"/>
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor rgb="FFD9EAD3"/>
       </patternFill>
     </fill>
     <fill>
@@ -1025,8 +745,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
-        <bgColor rgb="FF000000"/>
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
   </fills>
@@ -1057,30 +777,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" quotePrefix="1" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="5" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="5" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="0" quotePrefix="1" numFmtId="0" fillId="5" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1383,7 +1104,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="A16" sqref="A16:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1458,25 +1179,25 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1499,7 +1220,7 @@
       <c r="F17" s="3">
         <v>5</v>
       </c>
-      <c r="G17" s="5"/>
+      <c r="G17" s="4"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="3" t="s">
@@ -1520,7 +1241,7 @@
       <c r="F18" s="3">
         <v>2</v>
       </c>
-      <c r="G18" s="5"/>
+      <c r="G18" s="4"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="3" t="s">
@@ -1541,7 +1262,7 @@
       <c r="F19" s="3">
         <v>2</v>
       </c>
-      <c r="G19" s="5"/>
+      <c r="G19" s="4"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="3" t="s">
@@ -1562,7 +1283,7 @@
       <c r="F20" s="3">
         <v>3</v>
       </c>
-      <c r="G20" s="5"/>
+      <c r="G20" s="4"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="3" t="s">
@@ -1583,7 +1304,7 @@
       <c r="F21" s="3">
         <v>4</v>
       </c>
-      <c r="G21" s="5"/>
+      <c r="G21" s="4"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="3" t="s">
@@ -1604,7 +1325,7 @@
       <c r="F22" s="3">
         <v>4</v>
       </c>
-      <c r="G22" s="5"/>
+      <c r="G22" s="4"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="3" t="s">
@@ -1625,7 +1346,7 @@
       <c r="F23" s="3">
         <v>2</v>
       </c>
-      <c r="G23" s="5"/>
+      <c r="G23" s="4"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="3" t="s">
@@ -1646,7 +1367,7 @@
       <c r="F24" s="3">
         <v>2</v>
       </c>
-      <c r="G24" s="5"/>
+      <c r="G24" s="4"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="3" t="s">
@@ -1667,7 +1388,7 @@
       <c r="F25" s="3">
         <v>5</v>
       </c>
-      <c r="G25" s="5"/>
+      <c r="G25" s="4"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="3" t="s">
@@ -1688,7 +1409,7 @@
       <c r="F26" s="3">
         <v>5</v>
       </c>
-      <c r="G26" s="5"/>
+      <c r="G26" s="4"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="3" t="s">
@@ -1709,7 +1430,7 @@
       <c r="F27" s="3">
         <v>5</v>
       </c>
-      <c r="G27" s="5"/>
+      <c r="G27" s="4"/>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="3" t="s">
@@ -1730,27 +1451,17 @@
       <c r="F28" s="3">
         <v>2</v>
       </c>
-      <c r="G28" s="5"/>
+      <c r="G28" s="4"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>36</v>
-      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1784,7 +1495,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1804,7 +1515,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1814,29 +1525,29 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1844,99 +1555,99 @@
         <v>1</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>47</v>
+        <v>41</v>
+      </c>
+      <c r="C13" s="7">
+        <v>1.5</v>
       </c>
       <c r="D13" s="3">
         <v>3</v>
       </c>
-      <c r="E13" s="3"/>
+      <c r="E13" s="8"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3">
         <v>2</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>49</v>
+        <v>42</v>
+      </c>
+      <c r="C14" s="7">
+        <v>0.8</v>
       </c>
       <c r="D14" s="3">
         <v>7</v>
       </c>
-      <c r="E14" s="3"/>
+      <c r="E14" s="8"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3">
         <v>3</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>51</v>
+        <v>43</v>
+      </c>
+      <c r="C15" s="7">
+        <v>6.6</v>
       </c>
       <c r="D15" s="3">
         <v>10</v>
       </c>
-      <c r="E15" s="3"/>
+      <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3">
         <v>4</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>53</v>
+        <v>44</v>
+      </c>
+      <c r="C16" s="7">
+        <v>9</v>
       </c>
       <c r="D16" s="3">
         <v>6</v>
       </c>
-      <c r="E16" s="3"/>
+      <c r="E16" s="8"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3">
         <v>5</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
+      </c>
+      <c r="C17" s="7">
+        <v>2.7</v>
       </c>
       <c r="D17" s="3">
         <v>2</v>
       </c>
-      <c r="E17" s="3"/>
+      <c r="E17" s="8"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3">
         <v>6</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>57</v>
+        <v>46</v>
+      </c>
+      <c r="C18" s="7">
+        <v>21.5</v>
       </c>
       <c r="D18" s="3">
         <v>2</v>
       </c>
-      <c r="E18" s="3"/>
+      <c r="E18" s="8"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E19" s="3"/>
+        <v>47</v>
+      </c>
+      <c r="E19" s="8"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1969,7 +1680,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1994,113 +1705,113 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="8" t="s">
-        <v>64</v>
+      <c r="A13" s="13" t="s">
+        <v>53</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>45</v>
+      <c r="A14" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>66</v>
+        <v>54</v>
+      </c>
+      <c r="B15" s="7">
+        <v>3.71</v>
       </c>
       <c r="C15" s="3">
         <v>22</v>
       </c>
-      <c r="D15" s="3"/>
+      <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
+      </c>
+      <c r="B16" s="7">
+        <v>14.4</v>
       </c>
       <c r="C16" s="3">
         <v>46</v>
       </c>
-      <c r="D16" s="3"/>
+      <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>70</v>
+        <v>56</v>
+      </c>
+      <c r="B17" s="7">
+        <v>7.63</v>
       </c>
       <c r="C17" s="3">
         <v>24</v>
       </c>
-      <c r="D17" s="3"/>
+      <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>72</v>
+        <v>57</v>
+      </c>
+      <c r="B18" s="7">
+        <v>21.7</v>
       </c>
       <c r="C18" s="3">
         <v>20</v>
       </c>
-      <c r="D18" s="3"/>
+      <c r="D18" s="8"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>74</v>
+        <v>58</v>
+      </c>
+      <c r="B19" s="7">
+        <v>25.52</v>
       </c>
       <c r="C19" s="3">
         <v>21</v>
       </c>
-      <c r="D19" s="3"/>
+      <c r="D19" s="8"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D20" s="8"/>
+      <c r="C20" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="14"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="3"/>
@@ -2109,94 +1820,94 @@
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="8" t="s">
-        <v>76</v>
+      <c r="A22" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>45</v>
+      <c r="A23" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>77</v>
+        <v>54</v>
+      </c>
+      <c r="B24" s="7">
+        <v>13.29</v>
       </c>
       <c r="C24" s="3">
         <v>46</v>
       </c>
-      <c r="D24" s="3"/>
+      <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>78</v>
+        <v>55</v>
+      </c>
+      <c r="B25" s="7">
+        <v>27.87</v>
       </c>
       <c r="C25" s="3">
         <v>26</v>
       </c>
-      <c r="D25" s="3"/>
+      <c r="D25" s="8"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>79</v>
+        <v>56</v>
+      </c>
+      <c r="B26" s="7">
+        <v>7.69</v>
       </c>
       <c r="C26" s="3">
         <v>34</v>
       </c>
-      <c r="D26" s="3"/>
+      <c r="D26" s="8"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>80</v>
+        <v>57</v>
+      </c>
+      <c r="B27" s="7">
+        <v>23.23</v>
       </c>
       <c r="C27" s="3">
         <v>22</v>
       </c>
-      <c r="D27" s="3"/>
+      <c r="D27" s="8"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>81</v>
+        <v>58</v>
+      </c>
+      <c r="B28" s="7">
+        <v>15.82</v>
       </c>
       <c r="C28" s="3">
         <v>10</v>
       </c>
-      <c r="D28" s="3"/>
+      <c r="D28" s="8"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D29" s="8"/>
+      <c r="C29" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" s="14"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="3"/>
@@ -2205,98 +1916,98 @@
       <c r="D30" s="3"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="8" t="s">
-        <v>83</v>
+      <c r="A31" s="13" t="s">
+        <v>62</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>45</v>
+      <c r="A32" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>84</v>
+        <v>54</v>
+      </c>
+      <c r="B33" s="7">
+        <v>15.73</v>
       </c>
       <c r="C33" s="3">
         <v>31</v>
       </c>
-      <c r="D33" s="3"/>
+      <c r="D33" s="8"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>85</v>
+        <v>55</v>
+      </c>
+      <c r="B34" s="7">
+        <v>23.65</v>
       </c>
       <c r="C34" s="3">
         <v>29</v>
       </c>
-      <c r="D34" s="3"/>
+      <c r="D34" s="8"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>86</v>
+        <v>56</v>
+      </c>
+      <c r="B35" s="7">
+        <v>6.37</v>
       </c>
       <c r="C35" s="3">
         <v>14</v>
       </c>
-      <c r="D35" s="3"/>
+      <c r="D35" s="8"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>87</v>
+        <v>57</v>
+      </c>
+      <c r="B36" s="7">
+        <v>16.39</v>
       </c>
       <c r="C36" s="3">
         <v>42</v>
       </c>
-      <c r="D36" s="3"/>
+      <c r="D36" s="8"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>88</v>
+        <v>58</v>
+      </c>
+      <c r="B37" s="7">
+        <v>18.89</v>
       </c>
       <c r="C37" s="3">
         <v>25</v>
       </c>
-      <c r="D37" s="3"/>
+      <c r="D37" s="8"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="C38" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="D38" s="6"/>
+      <c r="C38" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D38" s="11"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="C40" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D40" s="7"/>
+      <c r="C40" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D40" s="12"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2319,7 +2030,7 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A21" sqref="A21:L21"/>
+      <selection activeCell="A11" sqref="A11:L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2339,90 +2050,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="9" t="s">
-        <v>91</v>
+      <c r="A1" s="15" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="D11" s="10" t="s">
+      <c r="A11" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="H11" s="10" t="s">
+      <c r="G11" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="H11" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="I11" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="K11" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="L11" s="10" t="s">
-        <v>105</v>
+      <c r="J11" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="K11" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="L11" s="16" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="3"/>
+      <c r="A12" s="4"/>
       <c r="B12" s="3" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="D12" s="3">
         <v>2</v>
@@ -2445,16 +2156,16 @@
       <c r="J12" s="3">
         <v>6</v>
       </c>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="3"/>
+      <c r="A13" s="4"/>
       <c r="B13" s="3" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="D13" s="3">
         <v>2</v>
@@ -2477,16 +2188,16 @@
       <c r="J13" s="3">
         <v>2</v>
       </c>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="3"/>
+      <c r="A14" s="4"/>
       <c r="B14" s="3" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="D14" s="3">
         <v>3</v>
@@ -2509,16 +2220,16 @@
       <c r="J14" s="3">
         <v>4</v>
       </c>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="3"/>
+      <c r="A15" s="4"/>
       <c r="B15" s="3" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="D15" s="3">
         <v>3</v>
@@ -2541,16 +2252,16 @@
       <c r="J15" s="3">
         <v>6</v>
       </c>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="3"/>
+      <c r="A16" s="4"/>
       <c r="B16" s="3" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="D16" s="3">
         <v>2</v>
@@ -2573,16 +2284,16 @@
       <c r="J16" s="3">
         <v>2</v>
       </c>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="3"/>
+      <c r="A17" s="4"/>
       <c r="B17" s="3" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="D17" s="3">
         <v>3</v>
@@ -2605,16 +2316,16 @@
       <c r="J17" s="3">
         <v>5</v>
       </c>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="3"/>
+      <c r="A18" s="4"/>
       <c r="B18" s="3" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="D18" s="3">
         <v>6</v>
@@ -2637,16 +2348,16 @@
       <c r="J18" s="3">
         <v>6</v>
       </c>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="3"/>
+      <c r="A19" s="4"/>
       <c r="B19" s="3" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="D19" s="3">
         <v>6</v>
@@ -2669,40 +2380,40 @@
       <c r="J19" s="3">
         <v>4</v>
       </c>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
+      <c r="A20" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
+      <c r="A21" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2735,277 +2446,271 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="9" t="s">
-        <v>122</v>
+      <c r="A1" s="15" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>124</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>126</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>127</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>130</v>
+      <c r="A10" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>133</v>
+        <v>106</v>
+      </c>
+      <c r="C11" s="7">
+        <v>12973</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>136</v>
+        <v>108</v>
+      </c>
+      <c r="C12" s="7">
+        <v>5850</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>137</v>
+        <v>109</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>139</v>
+        <v>110</v>
+      </c>
+      <c r="C13" s="7">
+        <v>12908</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>140</v>
+        <v>111</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>142</v>
+        <v>112</v>
+      </c>
+      <c r="C14" s="7">
+        <v>7920</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>143</v>
+        <v>113</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>145</v>
+        <v>114</v>
+      </c>
+      <c r="C15" s="7">
+        <v>8954</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>146</v>
+        <v>115</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>148</v>
+        <v>116</v>
+      </c>
+      <c r="C16" s="7">
+        <v>11920</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
-        <v>149</v>
+        <v>117</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>151</v>
+        <v>118</v>
+      </c>
+      <c r="C17" s="7">
+        <v>12711</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>152</v>
+        <v>119</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>154</v>
+        <v>120</v>
+      </c>
+      <c r="C18" s="7">
+        <v>5240</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>155</v>
+        <v>121</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>157</v>
+        <v>122</v>
+      </c>
+      <c r="C19" s="7">
+        <v>14542</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>158</v>
+        <v>123</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>160</v>
+        <v>124</v>
+      </c>
+      <c r="C20" s="7">
+        <v>4332</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>161</v>
+        <v>125</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>163</v>
+        <v>126</v>
+      </c>
+      <c r="C21" s="7">
+        <v>8633</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>164</v>
+        <v>127</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>166</v>
+        <v>128</v>
+      </c>
+      <c r="C22" s="7">
+        <v>14917</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
-        <v>167</v>
+        <v>129</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>169</v>
+        <v>130</v>
+      </c>
+      <c r="C23" s="7">
+        <v>14869</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="3" t="s">
-        <v>170</v>
+        <v>131</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>172</v>
+        <v>132</v>
+      </c>
+      <c r="C24" s="7">
+        <v>10936</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
-        <v>173</v>
+        <v>133</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>175</v>
+        <v>134</v>
+      </c>
+      <c r="C25" s="7">
+        <v>6104</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>176</v>
+        <v>135</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>178</v>
+        <v>136</v>
+      </c>
+      <c r="C26" s="7">
+        <v>6864</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="3" t="s">
-        <v>179</v>
+        <v>137</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>181</v>
+        <v>138</v>
+      </c>
+      <c r="C27" s="7">
+        <v>4062</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="3" t="s">
-        <v>182</v>
+        <v>139</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>184</v>
+        <v>140</v>
+      </c>
+      <c r="C28" s="7">
+        <v>4487</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="13" t="s">
-        <v>185</v>
+      <c r="A31" s="17" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>186</v>
-      </c>
-      <c r="B32" s="14" t="s">
-        <v>189</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="B32" s="2"/>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>187</v>
-      </c>
-      <c r="B33" s="14" t="s">
-        <v>189</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="B33" s="6"/>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>188</v>
-      </c>
-      <c r="B34" s="14" t="s">
-        <v>189</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="B34" s="6"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -3040,86 +2745,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="9" t="s">
-        <v>190</v>
+      <c r="A1" s="15" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>191</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>192</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>193</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>194</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>195</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>196</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>197</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>198</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>199</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>200</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>207</v>
+      <c r="A15" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -3127,22 +2832,22 @@
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>208</v>
+        <v>163</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>211</v>
+        <v>164</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1030</v>
+      </c>
+      <c r="E16" s="7">
+        <v>1195</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>212</v>
+        <v>165</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>213</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -3150,22 +2855,22 @@
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>208</v>
+        <v>163</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>216</v>
+        <v>167</v>
+      </c>
+      <c r="D17" s="7">
+        <v>1435</v>
+      </c>
+      <c r="E17" s="7">
+        <v>1607</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>217</v>
+        <v>168</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>218</v>
+        <v>169</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -3173,22 +2878,22 @@
         <v>3</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>219</v>
+        <v>170</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>221</v>
+        <v>164</v>
+      </c>
+      <c r="D18" s="7">
+        <v>1407</v>
+      </c>
+      <c r="E18" s="7">
+        <v>1899</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>222</v>
+        <v>171</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>223</v>
+        <v>172</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -3196,22 +2901,22 @@
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>208</v>
+        <v>163</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>226</v>
+        <v>173</v>
+      </c>
+      <c r="D19" s="7">
+        <v>1364</v>
+      </c>
+      <c r="E19" s="7">
+        <v>1664</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>227</v>
+        <v>174</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>228</v>
+        <v>175</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -3219,22 +2924,22 @@
         <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>229</v>
+        <v>176</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>232</v>
+        <v>177</v>
+      </c>
+      <c r="D20" s="7">
+        <v>1114</v>
+      </c>
+      <c r="E20" s="7">
+        <v>1493</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>233</v>
+        <v>178</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>234</v>
+        <v>179</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -3242,22 +2947,22 @@
         <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>229</v>
+        <v>176</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>237</v>
+        <v>180</v>
+      </c>
+      <c r="D21" s="7">
+        <v>1394</v>
+      </c>
+      <c r="E21" s="7">
+        <v>1826</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>212</v>
+        <v>165</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>238</v>
+        <v>181</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -3265,22 +2970,22 @@
         <v>7</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>239</v>
+        <v>182</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>241</v>
+        <v>180</v>
+      </c>
+      <c r="D22" s="7">
+        <v>1285</v>
+      </c>
+      <c r="E22" s="7">
+        <v>1696</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>242</v>
+        <v>183</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>238</v>
+        <v>181</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -3288,22 +2993,22 @@
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>229</v>
+        <v>176</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>245</v>
+        <v>184</v>
+      </c>
+      <c r="D23" s="7">
+        <v>1332</v>
+      </c>
+      <c r="E23" s="7">
+        <v>1745</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>227</v>
+        <v>174</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>238</v>
+        <v>181</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -3311,22 +3016,22 @@
         <v>9</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>208</v>
+        <v>163</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>248</v>
+        <v>185</v>
+      </c>
+      <c r="D24" s="7">
+        <v>1157</v>
+      </c>
+      <c r="E24" s="7">
+        <v>1388</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>233</v>
+        <v>178</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>234</v>
+        <v>179</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -3334,22 +3039,22 @@
         <v>10</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>249</v>
+        <v>186</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>252</v>
+        <v>187</v>
+      </c>
+      <c r="D25" s="7">
+        <v>606</v>
+      </c>
+      <c r="E25" s="7">
+        <v>685</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>253</v>
+        <v>188</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>213</v>
+        <v>166</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -3357,22 +3062,22 @@
         <v>11</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>229</v>
+        <v>176</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>256</v>
+        <v>189</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1314</v>
+      </c>
+      <c r="E26" s="7">
+        <v>1734</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>257</v>
+        <v>190</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>258</v>
+        <v>191</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3380,22 +3085,22 @@
         <v>12</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>229</v>
+        <v>176</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>261</v>
+        <v>192</v>
+      </c>
+      <c r="D27" s="7">
+        <v>1297</v>
+      </c>
+      <c r="E27" s="7">
+        <v>1556</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>262</v>
+        <v>193</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>234</v>
+        <v>179</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3403,22 +3108,22 @@
         <v>13</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>219</v>
+        <v>170</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>265</v>
+        <v>194</v>
+      </c>
+      <c r="D28" s="7">
+        <v>1044</v>
+      </c>
+      <c r="E28" s="7">
+        <v>1326</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>266</v>
+        <v>195</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>234</v>
+        <v>179</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3426,22 +3131,22 @@
         <v>14</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>229</v>
+        <v>176</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>268</v>
+        <v>196</v>
+      </c>
+      <c r="D29" s="7">
+        <v>1332</v>
+      </c>
+      <c r="E29" s="7">
+        <v>1638</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>269</v>
+        <v>197</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>270</v>
+        <v>198</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3449,22 +3154,22 @@
         <v>15</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>229</v>
+        <v>176</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>273</v>
+        <v>199</v>
+      </c>
+      <c r="D30" s="7">
+        <v>1113</v>
+      </c>
+      <c r="E30" s="7">
+        <v>1414</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>222</v>
+        <v>171</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>218</v>
+        <v>169</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3472,22 +3177,22 @@
         <v>16</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>229</v>
+        <v>176</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>275</v>
+        <v>192</v>
+      </c>
+      <c r="D31" s="7">
+        <v>531</v>
+      </c>
+      <c r="E31" s="7">
+        <v>743</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>276</v>
+        <v>200</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>277</v>
+        <v>201</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3495,22 +3200,22 @@
         <v>17</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>239</v>
+        <v>182</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>279</v>
+        <v>164</v>
+      </c>
+      <c r="D32" s="7">
+        <v>816</v>
+      </c>
+      <c r="E32" s="7">
+        <v>1077</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>257</v>
+        <v>190</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>280</v>
+        <v>202</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3518,22 +3223,22 @@
         <v>18</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>229</v>
+        <v>176</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>282</v>
+        <v>192</v>
+      </c>
+      <c r="D33" s="7">
+        <v>1275</v>
+      </c>
+      <c r="E33" s="7">
+        <v>1747</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>242</v>
+        <v>183</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>218</v>
+        <v>169</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3541,22 +3246,22 @@
         <v>19</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>219</v>
+        <v>170</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>284</v>
+        <v>180</v>
+      </c>
+      <c r="D34" s="7">
+        <v>1283</v>
+      </c>
+      <c r="E34" s="7">
+        <v>1719</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>227</v>
+        <v>174</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>285</v>
+        <v>203</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3564,22 +3269,22 @@
         <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>286</v>
+        <v>204</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>288</v>
+        <v>180</v>
+      </c>
+      <c r="D35" s="7">
+        <v>1083</v>
+      </c>
+      <c r="E35" s="7">
+        <v>1202</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>217</v>
+        <v>168</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>228</v>
+        <v>175</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3587,22 +3292,22 @@
         <v>21</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>239</v>
+        <v>182</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>290</v>
+        <v>164</v>
+      </c>
+      <c r="D36" s="7">
+        <v>642</v>
+      </c>
+      <c r="E36" s="7">
+        <v>867</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>276</v>
+        <v>200</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>213</v>
+        <v>166</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3610,22 +3315,22 @@
         <v>22</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>286</v>
+        <v>204</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>293</v>
+        <v>205</v>
+      </c>
+      <c r="D37" s="7">
+        <v>1333</v>
+      </c>
+      <c r="E37" s="7">
+        <v>1600</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>294</v>
+        <v>206</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>228</v>
+        <v>175</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3633,22 +3338,22 @@
         <v>23</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>286</v>
+        <v>204</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>297</v>
+        <v>207</v>
+      </c>
+      <c r="D38" s="7">
+        <v>952</v>
+      </c>
+      <c r="E38" s="7">
+        <v>1228</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>276</v>
+        <v>200</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>218</v>
+        <v>169</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3656,22 +3361,22 @@
         <v>24</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>229</v>
+        <v>176</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>299</v>
+        <v>205</v>
+      </c>
+      <c r="D39" s="7">
+        <v>1360</v>
+      </c>
+      <c r="E39" s="7">
+        <v>1863</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>269</v>
+        <v>197</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>228</v>
+        <v>175</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3679,68 +3384,58 @@
         <v>25</v>
       </c>
       <c r="B40" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="C40" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>302</v>
+      <c r="D40" s="7">
+        <v>1293</v>
+      </c>
+      <c r="E40" s="7">
+        <v>1461</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>222</v>
+        <v>171</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>285</v>
+        <v>203</v>
       </c>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="13" t="s">
-        <v>185</v>
+      <c r="A43" s="17" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" t="s">
-        <v>303</v>
-      </c>
-      <c r="B44" s="14" t="s">
-        <v>189</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="B44" s="6"/>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>304</v>
-      </c>
-      <c r="B45" s="14" t="s">
-        <v>189</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="B45" s="6"/>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>305</v>
-      </c>
-      <c r="B46" s="14" t="s">
-        <v>189</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="B46" s="6"/>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>306</v>
-      </c>
-      <c r="B47" s="14" t="s">
-        <v>189</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="B47" s="6"/>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>307</v>
-      </c>
-      <c r="B48" s="14" t="s">
-        <v>189</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="B48" s="6"/>
     </row>
   </sheetData>
   <mergeCells>

--- a/excel/collective/zestawy_dla_uczniow/zestaw_016.xlsx
+++ b/excel/collective/zestawy_dla_uczniow/zestaw_016.xlsx
@@ -12,7 +12,8 @@
     <sheet name="Zadanie 3 - Sprzedaż" sheetId="3" r:id="rId6"/>
     <sheet name="Zadanie 4 - Średnie klasy" sheetId="4" r:id="rId7"/>
     <sheet name="Zadanie 5 - Dane osobowe" sheetId="5" r:id="rId8"/>
-    <sheet name="Zadanie 6 - Analiza" sheetId="6" r:id="rId9"/>
+    <sheet name="Zadanie 6 - Godziny pracy" sheetId="6" r:id="rId9"/>
+    <sheet name="Zadanie 7 - Analiza" sheetId="7" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="212">
   <si>
     <t>ZESTAW ZADAŃ NR 16 - CZĘŚĆ 1</t>
   </si>
@@ -61,19 +62,19 @@
     <t>Przedmiot</t>
   </si>
   <si>
-    <t>Hanna Wilk</t>
-  </si>
-  <si>
-    <t>Adam Mazur</t>
-  </si>
-  <si>
-    <t>Jakub Grabowski</t>
-  </si>
-  <si>
-    <t>Natalia Wójcik</t>
-  </si>
-  <si>
-    <t>Amelia Maciejewska</t>
+    <t>Oliwia Wilk</t>
+  </si>
+  <si>
+    <t>Kacper Dąbrowski</t>
+  </si>
+  <si>
+    <t>Anna Urbaniak</t>
+  </si>
+  <si>
+    <t>Emilia Jaworska</t>
+  </si>
+  <si>
+    <t>Zuzanna Wójcik</t>
   </si>
   <si>
     <t>ŚREDNIA</t>
@@ -118,6 +119,9 @@
     <t>ŚREDNIA UCZNIA:</t>
   </si>
   <si>
+    <t>ŚREDNIA KLASY:</t>
+  </si>
+  <si>
     <t>ZESTAW ZADAŃ NR 16 - CZĘŚĆ 2: ZAKUPY</t>
   </si>
   <si>
@@ -145,24 +149,24 @@
     <t>Razem (zł)</t>
   </si>
   <si>
+    <t>Blok rysunkowy A4</t>
+  </si>
+  <si>
+    <t>Farby plakatowe 12 kolorów</t>
+  </si>
+  <si>
+    <t>Zeszyt 60 kartek</t>
+  </si>
+  <si>
+    <t>Linijka 30 cm</t>
+  </si>
+  <si>
+    <t>Gumka do mazania</t>
+  </si>
+  <si>
     <t>Temperówka</t>
   </si>
   <si>
-    <t>Ołówek HB</t>
-  </si>
-  <si>
-    <t>Pędzelek</t>
-  </si>
-  <si>
-    <t>Cyrkiel</t>
-  </si>
-  <si>
-    <t>Długopis niebieski</t>
-  </si>
-  <si>
-    <t>Farby plakatowe 12 kolorów</t>
-  </si>
-  <si>
     <t>SUMA:</t>
   </si>
   <si>
@@ -217,6 +221,9 @@
     <t>SUMA z 3 miesięcy:</t>
   </si>
   <si>
+    <t>Średnia z 3 miesięcy:</t>
+  </si>
+  <si>
     <t>ZADANIE 4: ŚREDNIE KLASY</t>
   </si>
   <si>
@@ -232,7 +239,7 @@
     <t>3. Oblicz średią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
   </si>
   <si>
-    <t>4. Jeżeli średnia ucznia jest większa lub równa 4,5, wpisz "TAK", w przeciwnym razie "NIE" w kolumnie "Czy pasek?".</t>
+    <t>4. Jeżeli średnia ucznia jest większa lub równa 4,75, wpisz "TAK", w przeciwnym razie "NIE" w kolumnie "Czy pasek?".</t>
   </si>
   <si>
     <t>5. Oblicz średnią ocen dla każdego przedmiotu i wpisz w wierszu "Średnia przedmiotu:".</t>
@@ -259,49 +266,43 @@
     <t>Średnia ucznia</t>
   </si>
   <si>
-    <t>Czy pasek?</t>
-  </si>
-  <si>
-    <t>Oliwia</t>
-  </si>
-  <si>
-    <t>Jaworska</t>
-  </si>
-  <si>
-    <t>Wojciech</t>
+    <t>Czy śrecnia powyżej 4,75?</t>
+  </si>
+  <si>
+    <t>Adam</t>
+  </si>
+  <si>
+    <t>Wojciechowski</t>
+  </si>
+  <si>
+    <t>Natalia</t>
+  </si>
+  <si>
+    <t>Borkowska</t>
+  </si>
+  <si>
+    <t>Jankowski</t>
+  </si>
+  <si>
+    <t>Lewandowski</t>
+  </si>
+  <si>
+    <t>Lena</t>
+  </si>
+  <si>
+    <t>Olszewska</t>
+  </si>
+  <si>
+    <t>Mikołaj</t>
   </si>
   <si>
     <t>Kwiatkowski</t>
   </si>
   <si>
-    <t>Kacper</t>
-  </si>
-  <si>
-    <t>Lewandowski</t>
-  </si>
-  <si>
-    <t>Anna</t>
-  </si>
-  <si>
-    <t>Bednarska</t>
-  </si>
-  <si>
-    <t>Hanna</t>
-  </si>
-  <si>
     <t>Kubiak</t>
   </si>
   <si>
-    <t>Jakub</t>
-  </si>
-  <si>
-    <t>Jankowski</t>
-  </si>
-  <si>
-    <t>Maja</t>
-  </si>
-  <si>
-    <t>Malinowska</t>
+    <t>Sikorska</t>
   </si>
   <si>
     <t>Średnia przedmiotu:</t>
@@ -337,112 +338,40 @@
     <t>Zarobki (zł)</t>
   </si>
   <si>
-    <t>Anna Król</t>
-  </si>
-  <si>
-    <t>17.08.1998</t>
-  </si>
-  <si>
-    <t>Antoni Mazur</t>
-  </si>
-  <si>
-    <t>20.01.1999</t>
-  </si>
-  <si>
-    <t>Jan Lewandowski</t>
-  </si>
-  <si>
-    <t>13.01.1989</t>
-  </si>
-  <si>
-    <t>Hanna Czarnecka</t>
-  </si>
-  <si>
-    <t>27.08.1992</t>
-  </si>
-  <si>
-    <t>Mikołaj Kamiński</t>
-  </si>
-  <si>
-    <t>03.01.1992</t>
-  </si>
-  <si>
-    <t>Szymon Kowalczyk</t>
-  </si>
-  <si>
-    <t>14.03.1981</t>
-  </si>
-  <si>
-    <t>Julia Czarnecka</t>
-  </si>
-  <si>
-    <t>23.05.1977</t>
-  </si>
-  <si>
-    <t>Jakub Kowalczyk</t>
-  </si>
-  <si>
-    <t>19.01.1987</t>
-  </si>
-  <si>
-    <t>Emilia Kubiak</t>
-  </si>
-  <si>
-    <t>20.06.1988</t>
-  </si>
-  <si>
-    <t>Aleksander Dąbrowski</t>
-  </si>
-  <si>
-    <t>02.12.1988</t>
-  </si>
-  <si>
-    <t>Wojciech Kowalski</t>
-  </si>
-  <si>
-    <t>26.08.1997</t>
-  </si>
-  <si>
-    <t>Hanna Jaworska</t>
-  </si>
-  <si>
-    <t>11.09.2001</t>
-  </si>
-  <si>
-    <t>Maja Piekarska</t>
-  </si>
-  <si>
-    <t>09.04.1976</t>
-  </si>
-  <si>
-    <t>Anna Sadowska</t>
-  </si>
-  <si>
-    <t>20.02.2001</t>
-  </si>
-  <si>
-    <t>Wojciech Dąbrowski</t>
-  </si>
-  <si>
-    <t>03.08.1982</t>
-  </si>
-  <si>
-    <t>Anna Wójcik</t>
-  </si>
-  <si>
-    <t>03.01.1979</t>
-  </si>
-  <si>
-    <t>Zuzanna Borkowska</t>
-  </si>
-  <si>
-    <t>14.05.1981</t>
-  </si>
-  <si>
-    <t>Zuzanna Maciejewska</t>
-  </si>
-  <si>
-    <t>09.12.1995</t>
+    <t>Julia Borkowska</t>
+  </si>
+  <si>
+    <t>Mikołaj Wojciechowski</t>
+  </si>
+  <si>
+    <t>Szymon Kaczmarek</t>
+  </si>
+  <si>
+    <t>Jakub Jankowski</t>
+  </si>
+  <si>
+    <t>Zuzanna Wilk</t>
+  </si>
+  <si>
+    <t>Amelia Czarnecka</t>
+  </si>
+  <si>
+    <t>Mikołaj Kozłowski</t>
+  </si>
+  <si>
+    <t>Natalia Urbaniak</t>
+  </si>
+  <si>
+    <t>Antoni Kowalski</t>
+  </si>
+  <si>
+    <t>Wojciech Kozłowski</t>
+  </si>
+  <si>
+    <t>Kacper Wojciechowski</t>
+  </si>
+  <si>
+    <t>Oliwia Urbaniak</t>
   </si>
   <si>
     <t>OBLICZENIA:</t>
@@ -457,7 +386,64 @@
     <t>Najmniejsze zarobki:</t>
   </si>
   <si>
-    <t>ZADANIE 6 - ANALIZA SPRZEDAŻY</t>
+    <t>ZADANIE 6 - DANE OSOBOWE I ILOŚĆ GODZIN PRACY</t>
+  </si>
+  <si>
+    <t>1. Oblicz ilość przepracowanych godzin dla każdej osoby</t>
+  </si>
+  <si>
+    <t>2. Podaj zarobki dla każdej osoby (stawka godzinowa × ilość przepracowanych godzin)</t>
+  </si>
+  <si>
+    <t>Stawka godzinowa (zł/h):</t>
+  </si>
+  <si>
+    <t>Ilość przepracowanych godzin</t>
+  </si>
+  <si>
+    <t>Kacper Kozłowski</t>
+  </si>
+  <si>
+    <t>Wojciech Kowalczyk</t>
+  </si>
+  <si>
+    <t>Mikołaj Nowak</t>
+  </si>
+  <si>
+    <t>Zuzanna Lis</t>
+  </si>
+  <si>
+    <t>Filip Kamiński</t>
+  </si>
+  <si>
+    <t>Adam Krawczyk</t>
+  </si>
+  <si>
+    <t>Natalia Zawadzka</t>
+  </si>
+  <si>
+    <t>Mikołaj Wójcik</t>
+  </si>
+  <si>
+    <t>Oliwia Borkowska</t>
+  </si>
+  <si>
+    <t>Jakub Wójcik</t>
+  </si>
+  <si>
+    <t>Adam Kamiński</t>
+  </si>
+  <si>
+    <t>Antoni Wiśniewski</t>
+  </si>
+  <si>
+    <t>Szymon Jankowski</t>
+  </si>
+  <si>
+    <t>Jakub Kozłowski</t>
+  </si>
+  <si>
+    <t>ZADANIE 7 - ANALIZA SPRZEDAŻY</t>
   </si>
   <si>
     <t>1. Rozbij kolumnę "Sprzedawca" na dwie osobne kolumny: "Imię" i "Nazwisko"</t>
@@ -514,139 +500,148 @@
     <t>czerwiec</t>
   </si>
   <si>
+    <t>Smartwatch</t>
+  </si>
+  <si>
+    <t>Tomasz Kamiński</t>
+  </si>
+  <si>
+    <t>podlaskie</t>
+  </si>
+  <si>
+    <t>Michał Jankowski</t>
+  </si>
+  <si>
+    <t>opolskie</t>
+  </si>
+  <si>
+    <t>kwiecień</t>
+  </si>
+  <si>
+    <t>Router Wi-Fi 6</t>
+  </si>
+  <si>
+    <t>Barbara Kozłowska</t>
+  </si>
+  <si>
+    <t>lubuskie</t>
+  </si>
+  <si>
+    <t>Procesor i5</t>
+  </si>
+  <si>
+    <t>Marcin Zieliński</t>
+  </si>
+  <si>
+    <t>warmińsko-mazurskie</t>
+  </si>
+  <si>
+    <t>Krzysztof Lewandowski</t>
+  </si>
+  <si>
+    <t>świętokrzyskie</t>
+  </si>
+  <si>
+    <t>luty</t>
+  </si>
+  <si>
+    <t>Płyta główna</t>
+  </si>
+  <si>
+    <t>styczeń</t>
+  </si>
+  <si>
+    <t>Laptop Gaming i7</t>
+  </si>
+  <si>
+    <t>Katarzyna Mazur</t>
+  </si>
+  <si>
+    <t>marzec</t>
+  </si>
+  <si>
+    <t>małopolskie</t>
+  </si>
+  <si>
+    <t>Maria Dąbrowska</t>
+  </si>
+  <si>
+    <t>zachodniopomorskie</t>
+  </si>
+  <si>
+    <t>Odtwarzacz DVD</t>
+  </si>
+  <si>
+    <t>Ewa Kowalczyk</t>
+  </si>
+  <si>
+    <t>maj</t>
+  </si>
+  <si>
+    <t>Mysz gamingowa</t>
+  </si>
+  <si>
+    <t>pomorskie</t>
+  </si>
+  <si>
+    <t>Zasilacz 650W</t>
+  </si>
+  <si>
+    <t>Monika Krawczyk</t>
+  </si>
+  <si>
+    <t>wielkopolskie</t>
+  </si>
+  <si>
     <t>Mikrofon studyjny</t>
   </si>
   <si>
+    <t>Paweł Kwiatkowski</t>
+  </si>
+  <si>
+    <t>dolnośląskie</t>
+  </si>
+  <si>
+    <t>Drukarka laserowa</t>
+  </si>
+  <si>
+    <t>Andrzej Woźniak</t>
+  </si>
+  <si>
+    <t>Smart TV 55"</t>
+  </si>
+  <si>
+    <t>mazowieckie</t>
+  </si>
+  <si>
+    <t>Powerbank 20000mAh</t>
+  </si>
+  <si>
+    <t>śląskie</t>
+  </si>
+  <si>
+    <t>Tablet 10"</t>
+  </si>
+  <si>
     <t>Agnieszka Wojciechowska</t>
   </si>
   <si>
-    <t>dolnośląskie</t>
-  </si>
-  <si>
-    <t>Smart TV 55"</t>
-  </si>
-  <si>
-    <t>Maria Dąbrowska</t>
-  </si>
-  <si>
-    <t>pomorskie</t>
-  </si>
-  <si>
-    <t>styczeń</t>
-  </si>
-  <si>
-    <t>Monika Krawczyk</t>
-  </si>
-  <si>
-    <t>śląskie</t>
-  </si>
-  <si>
-    <t>Płyta główna</t>
-  </si>
-  <si>
-    <t>Krzysztof Lewandowski</t>
-  </si>
-  <si>
-    <t>małopolskie</t>
-  </si>
-  <si>
-    <t>marzec</t>
-  </si>
-  <si>
-    <t>Głośnik Bluetooth</t>
-  </si>
-  <si>
-    <t>Paweł Kwiatkowski</t>
-  </si>
-  <si>
-    <t>kujawsko-pomorskie</t>
-  </si>
-  <si>
-    <t>Laptop Gaming i7</t>
-  </si>
-  <si>
     <t>łódzkie</t>
   </si>
   <si>
-    <t>maj</t>
-  </si>
-  <si>
-    <t>Jan Kowalski</t>
-  </si>
-  <si>
-    <t>Procesor i5</t>
-  </si>
-  <si>
-    <t>Odtwarzacz DVD</t>
-  </si>
-  <si>
-    <t>kwiecień</t>
-  </si>
-  <si>
-    <t>Zasilacz 650W</t>
-  </si>
-  <si>
-    <t>Michał Jankowski</t>
-  </si>
-  <si>
-    <t>Projektor multimedialny</t>
-  </si>
-  <si>
-    <t>Tomasz Kamiński</t>
-  </si>
-  <si>
-    <t>opolskie</t>
-  </si>
-  <si>
-    <t>Obudowa gamingowa</t>
+    <t>Smartphone 5G 128GB</t>
   </si>
   <si>
     <t>Piotr Wiśniewski</t>
   </si>
   <si>
+    <t>Słuchawki bezprzewodowe</t>
+  </si>
+  <si>
+    <t>Magdalena Szymańska</t>
+  </si>
+  <si>
     <t>Dysk SSD 1TB</t>
-  </si>
-  <si>
-    <t>Ewa Kowalczyk</t>
-  </si>
-  <si>
-    <t>Słuchawki bezprzewodowe</t>
-  </si>
-  <si>
-    <t>Andrzej Woźniak</t>
-  </si>
-  <si>
-    <t>zachodniopomorskie</t>
-  </si>
-  <si>
-    <t>Smartwatch</t>
-  </si>
-  <si>
-    <t>Anna Nowak</t>
-  </si>
-  <si>
-    <t>lubuskie</t>
-  </si>
-  <si>
-    <t>podlaskie</t>
-  </si>
-  <si>
-    <t>mazowieckie</t>
-  </si>
-  <si>
-    <t>luty</t>
-  </si>
-  <si>
-    <t>Tablet 10"</t>
-  </si>
-  <si>
-    <t>Marcin Zieliński</t>
-  </si>
-  <si>
-    <t>Router Wi-Fi 6</t>
-  </si>
-  <si>
-    <t>Konsola do gier</t>
   </si>
   <si>
     <t>Suma ceny sprzedaży:</t>
@@ -718,7 +713,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -741,12 +736,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFD9EAD3"/>
         <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9EAD3"/>
-        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
   </fills>
@@ -777,7 +766,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -788,13 +777,12 @@
     <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="164" fillId="5" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
@@ -1101,7 +1089,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A16" sqref="A16:G16"/>
@@ -1206,7 +1194,7 @@
         <v>19</v>
       </c>
       <c r="B17" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C17" s="3">
         <v>4</v>
@@ -1215,10 +1203,10 @@
         <v>3</v>
       </c>
       <c r="E17" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F17" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G17" s="4"/>
     </row>
@@ -1227,19 +1215,19 @@
         <v>20</v>
       </c>
       <c r="B18" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C18" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D18" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E18" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F18" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G18" s="4"/>
     </row>
@@ -1248,19 +1236,19 @@
         <v>21</v>
       </c>
       <c r="B19" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C19" s="3">
         <v>5</v>
       </c>
       <c r="D19" s="3">
+        <v>5</v>
+      </c>
+      <c r="E19" s="3">
         <v>3</v>
       </c>
-      <c r="E19" s="3">
+      <c r="F19" s="3">
         <v>5</v>
-      </c>
-      <c r="F19" s="3">
-        <v>2</v>
       </c>
       <c r="G19" s="4"/>
     </row>
@@ -1269,19 +1257,19 @@
         <v>22</v>
       </c>
       <c r="B20" s="3">
+        <v>2</v>
+      </c>
+      <c r="C20" s="3">
         <v>5</v>
       </c>
-      <c r="C20" s="3">
+      <c r="D20" s="3">
         <v>6</v>
       </c>
-      <c r="D20" s="3">
-        <v>4</v>
-      </c>
       <c r="E20" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F20" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G20" s="4"/>
     </row>
@@ -1290,13 +1278,13 @@
         <v>23</v>
       </c>
       <c r="B21" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C21" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D21" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E21" s="3">
         <v>4</v>
@@ -1311,19 +1299,19 @@
         <v>24</v>
       </c>
       <c r="B22" s="3">
+        <v>6</v>
+      </c>
+      <c r="C22" s="3">
+        <v>3</v>
+      </c>
+      <c r="D22" s="3">
+        <v>4</v>
+      </c>
+      <c r="E22" s="3">
         <v>5</v>
       </c>
-      <c r="C22" s="3">
-        <v>5</v>
-      </c>
-      <c r="D22" s="3">
+      <c r="F22" s="3">
         <v>6</v>
-      </c>
-      <c r="E22" s="3">
-        <v>3</v>
-      </c>
-      <c r="F22" s="3">
-        <v>4</v>
       </c>
       <c r="G22" s="4"/>
     </row>
@@ -1332,19 +1320,19 @@
         <v>25</v>
       </c>
       <c r="B23" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C23" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D23" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E23" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F23" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G23" s="4"/>
     </row>
@@ -1353,19 +1341,19 @@
         <v>26</v>
       </c>
       <c r="B24" s="3">
+        <v>5</v>
+      </c>
+      <c r="C24" s="3">
+        <v>2</v>
+      </c>
+      <c r="D24" s="3">
         <v>3</v>
       </c>
-      <c r="C24" s="3">
-        <v>6</v>
-      </c>
-      <c r="D24" s="3">
+      <c r="E24" s="3">
+        <v>3</v>
+      </c>
+      <c r="F24" s="3">
         <v>4</v>
-      </c>
-      <c r="E24" s="3">
-        <v>2</v>
-      </c>
-      <c r="F24" s="3">
-        <v>2</v>
       </c>
       <c r="G24" s="4"/>
     </row>
@@ -1374,19 +1362,19 @@
         <v>27</v>
       </c>
       <c r="B25" s="3">
+        <v>6</v>
+      </c>
+      <c r="C25" s="3">
+        <v>5</v>
+      </c>
+      <c r="D25" s="3">
         <v>3</v>
       </c>
-      <c r="C25" s="3">
-        <v>3</v>
-      </c>
-      <c r="D25" s="3">
-        <v>4</v>
-      </c>
       <c r="E25" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F25" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G25" s="4"/>
     </row>
@@ -1395,19 +1383,19 @@
         <v>28</v>
       </c>
       <c r="B26" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C26" s="3">
         <v>6</v>
       </c>
       <c r="D26" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E26" s="3">
         <v>2</v>
       </c>
       <c r="F26" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G26" s="4"/>
     </row>
@@ -1416,19 +1404,19 @@
         <v>29</v>
       </c>
       <c r="B27" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C27" s="3">
         <v>6</v>
       </c>
       <c r="D27" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E27" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F27" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G27" s="4"/>
     </row>
@@ -1440,16 +1428,16 @@
         <v>3</v>
       </c>
       <c r="C28" s="3">
+        <v>2</v>
+      </c>
+      <c r="D28" s="3">
+        <v>6</v>
+      </c>
+      <c r="E28" s="3">
+        <v>4</v>
+      </c>
+      <c r="F28" s="3">
         <v>5</v>
-      </c>
-      <c r="D28" s="3">
-        <v>3</v>
-      </c>
-      <c r="E28" s="3">
-        <v>2</v>
-      </c>
-      <c r="F28" s="3">
-        <v>2</v>
       </c>
       <c r="G28" s="4"/>
     </row>
@@ -1462,6 +1450,12 @@
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="2"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1495,7 +1489,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1515,7 +1509,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1525,29 +1519,29 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1555,99 +1549,99 @@
         <v>1</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="7">
-        <v>1.5</v>
+        <v>42</v>
+      </c>
+      <c r="C13" s="8">
+        <v>4.7</v>
       </c>
       <c r="D13" s="3">
-        <v>3</v>
-      </c>
-      <c r="E13" s="8"/>
+        <v>4</v>
+      </c>
+      <c r="E13" s="9"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3">
         <v>2</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="7">
-        <v>0.8</v>
+        <v>43</v>
+      </c>
+      <c r="C14" s="8">
+        <v>12.3</v>
       </c>
       <c r="D14" s="3">
-        <v>7</v>
-      </c>
-      <c r="E14" s="8"/>
+        <v>3</v>
+      </c>
+      <c r="E14" s="9"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3">
         <v>3</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="7">
-        <v>6.6</v>
+        <v>44</v>
+      </c>
+      <c r="C15" s="8">
+        <v>5.3</v>
       </c>
       <c r="D15" s="3">
-        <v>10</v>
-      </c>
-      <c r="E15" s="8"/>
+        <v>2</v>
+      </c>
+      <c r="E15" s="9"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3">
         <v>4</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="7">
-        <v>9</v>
+        <v>45</v>
+      </c>
+      <c r="C16" s="8">
+        <v>4.2</v>
       </c>
       <c r="D16" s="3">
-        <v>6</v>
-      </c>
-      <c r="E16" s="8"/>
+        <v>10</v>
+      </c>
+      <c r="E16" s="9"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3">
         <v>5</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="7">
-        <v>2.7</v>
+        <v>46</v>
+      </c>
+      <c r="C17" s="8">
+        <v>0.7</v>
       </c>
       <c r="D17" s="3">
-        <v>2</v>
-      </c>
-      <c r="E17" s="8"/>
+        <v>6</v>
+      </c>
+      <c r="E17" s="9"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3">
         <v>6</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="7">
-        <v>21.5</v>
+        <v>47</v>
+      </c>
+      <c r="C18" s="8">
+        <v>3.4</v>
       </c>
       <c r="D18" s="3">
-        <v>2</v>
-      </c>
-      <c r="E18" s="8"/>
+        <v>6</v>
+      </c>
+      <c r="E18" s="9"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E19" s="8"/>
+        <v>48</v>
+      </c>
+      <c r="E19" s="9"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1664,10 +1658,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A13" sqref="A13:D37"/>
+      <selection activeCell="A13" sqref="A13:D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1680,7 +1674,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1705,27 +1699,27 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="13" t="s">
-        <v>53</v>
+      <c r="A13" s="12" t="s">
+        <v>54</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1733,85 +1727,85 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" s="7">
-        <v>3.71</v>
+        <v>55</v>
+      </c>
+      <c r="B15" s="8">
+        <v>27.93</v>
       </c>
       <c r="C15" s="3">
-        <v>22</v>
-      </c>
-      <c r="D15" s="8"/>
+        <v>27</v>
+      </c>
+      <c r="D15" s="9"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B16" s="7">
-        <v>14.4</v>
+        <v>56</v>
+      </c>
+      <c r="B16" s="8">
+        <v>3.47</v>
       </c>
       <c r="C16" s="3">
-        <v>46</v>
-      </c>
-      <c r="D16" s="8"/>
+        <v>37</v>
+      </c>
+      <c r="D16" s="9"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B17" s="7">
-        <v>7.63</v>
+        <v>57</v>
+      </c>
+      <c r="B17" s="8">
+        <v>2.39</v>
       </c>
       <c r="C17" s="3">
-        <v>24</v>
-      </c>
-      <c r="D17" s="8"/>
+        <v>47</v>
+      </c>
+      <c r="D17" s="9"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B18" s="7">
-        <v>21.7</v>
+        <v>58</v>
+      </c>
+      <c r="B18" s="8">
+        <v>9.22</v>
       </c>
       <c r="C18" s="3">
-        <v>20</v>
-      </c>
-      <c r="D18" s="8"/>
+        <v>5</v>
+      </c>
+      <c r="D18" s="9"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B19" s="7">
-        <v>25.52</v>
+        <v>59</v>
+      </c>
+      <c r="B19" s="8">
+        <v>10.12</v>
       </c>
       <c r="C19" s="3">
-        <v>21</v>
-      </c>
-      <c r="D19" s="8"/>
+        <v>29</v>
+      </c>
+      <c r="D19" s="9"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="D20" s="14"/>
+      <c r="C20" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="13"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="3"/>
@@ -1820,8 +1814,8 @@
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="13" t="s">
-        <v>60</v>
+      <c r="A22" s="12" t="s">
+        <v>61</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1829,85 +1823,85 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B24" s="7">
-        <v>13.29</v>
+        <v>55</v>
+      </c>
+      <c r="B24" s="8">
+        <v>1.13</v>
       </c>
       <c r="C24" s="3">
-        <v>46</v>
-      </c>
-      <c r="D24" s="8"/>
+        <v>18</v>
+      </c>
+      <c r="D24" s="9"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B25" s="7">
-        <v>27.87</v>
+        <v>56</v>
+      </c>
+      <c r="B25" s="8">
+        <v>28.63</v>
       </c>
       <c r="C25" s="3">
-        <v>26</v>
-      </c>
-      <c r="D25" s="8"/>
+        <v>28</v>
+      </c>
+      <c r="D25" s="9"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B26" s="7">
-        <v>7.69</v>
+        <v>57</v>
+      </c>
+      <c r="B26" s="8">
+        <v>13.95</v>
       </c>
       <c r="C26" s="3">
-        <v>34</v>
-      </c>
-      <c r="D26" s="8"/>
+        <v>39</v>
+      </c>
+      <c r="D26" s="9"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B27" s="7">
-        <v>23.23</v>
+        <v>58</v>
+      </c>
+      <c r="B27" s="8">
+        <v>28.63</v>
       </c>
       <c r="C27" s="3">
-        <v>22</v>
-      </c>
-      <c r="D27" s="8"/>
+        <v>48</v>
+      </c>
+      <c r="D27" s="9"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B28" s="7">
-        <v>15.82</v>
+        <v>59</v>
+      </c>
+      <c r="B28" s="8">
+        <v>29.37</v>
       </c>
       <c r="C28" s="3">
-        <v>10</v>
-      </c>
-      <c r="D28" s="8"/>
+        <v>21</v>
+      </c>
+      <c r="D28" s="9"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="D29" s="14"/>
+      <c r="C29" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" s="13"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="3"/>
@@ -1916,8 +1910,8 @@
       <c r="D30" s="3"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="13" t="s">
-        <v>62</v>
+      <c r="A31" s="12" t="s">
+        <v>63</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1925,89 +1919,97 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B33" s="7">
-        <v>15.73</v>
+        <v>55</v>
+      </c>
+      <c r="B33" s="8">
+        <v>4.29</v>
       </c>
       <c r="C33" s="3">
-        <v>31</v>
-      </c>
-      <c r="D33" s="8"/>
+        <v>34</v>
+      </c>
+      <c r="D33" s="9"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B34" s="7">
-        <v>23.65</v>
+        <v>56</v>
+      </c>
+      <c r="B34" s="8">
+        <v>2.36</v>
       </c>
       <c r="C34" s="3">
-        <v>29</v>
-      </c>
-      <c r="D34" s="8"/>
+        <v>17</v>
+      </c>
+      <c r="D34" s="9"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B35" s="7">
-        <v>6.37</v>
+        <v>57</v>
+      </c>
+      <c r="B35" s="8">
+        <v>8.7</v>
       </c>
       <c r="C35" s="3">
-        <v>14</v>
-      </c>
-      <c r="D35" s="8"/>
+        <v>36</v>
+      </c>
+      <c r="D35" s="9"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B36" s="7">
-        <v>16.39</v>
+        <v>58</v>
+      </c>
+      <c r="B36" s="8">
+        <v>4.55</v>
       </c>
       <c r="C36" s="3">
-        <v>42</v>
-      </c>
-      <c r="D36" s="8"/>
+        <v>49</v>
+      </c>
+      <c r="D36" s="9"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B37" s="7">
-        <v>18.89</v>
+        <v>59</v>
+      </c>
+      <c r="B37" s="8">
+        <v>4.05</v>
       </c>
       <c r="C37" s="3">
-        <v>25</v>
-      </c>
-      <c r="D37" s="8"/>
+        <v>16</v>
+      </c>
+      <c r="D37" s="9"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="C38" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="D38" s="11"/>
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D38" s="13"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="C40" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D40" s="12"/>
+      <c r="C40" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D40" s="2"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="C41" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D41" s="7"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2050,111 +2052,111 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="15" t="s">
-        <v>65</v>
+      <c r="A1" s="14" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="C11" s="16" t="s">
+      <c r="A11" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="B11" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="H11" s="16" t="s">
+      <c r="G11" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="H11" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="16" t="s">
+      <c r="I11" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="K11" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="L11" s="16" t="s">
+      <c r="J11" s="15" t="s">
         <v>79</v>
+      </c>
+      <c r="K11" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="L11" s="15" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="4"/>
       <c r="B12" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D12" s="3">
+        <v>4</v>
+      </c>
+      <c r="E12" s="3">
+        <v>3</v>
+      </c>
+      <c r="F12" s="3">
+        <v>3</v>
+      </c>
+      <c r="G12" s="3">
         <v>2</v>
       </c>
-      <c r="E12" s="3">
-        <v>6</v>
-      </c>
-      <c r="F12" s="3">
-        <v>4</v>
-      </c>
-      <c r="G12" s="3">
-        <v>6</v>
-      </c>
       <c r="H12" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I12" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J12" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
@@ -2162,31 +2164,31 @@
     <row r="13" spans="1:12">
       <c r="A13" s="4"/>
       <c r="B13" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D13" s="3">
+        <v>4</v>
+      </c>
+      <c r="E13" s="3">
+        <v>3</v>
+      </c>
+      <c r="F13" s="3">
         <v>2</v>
       </c>
-      <c r="E13" s="3">
+      <c r="G13" s="3">
         <v>4</v>
       </c>
-      <c r="F13" s="3">
-        <v>6</v>
-      </c>
-      <c r="G13" s="3">
-        <v>5</v>
-      </c>
       <c r="H13" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I13" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J13" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
@@ -2194,31 +2196,31 @@
     <row r="14" spans="1:12">
       <c r="A14" s="4"/>
       <c r="B14" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D14" s="3">
+        <v>2</v>
+      </c>
+      <c r="E14" s="3">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3">
         <v>3</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3">
         <v>2</v>
       </c>
-      <c r="F14" s="3">
-        <v>5</v>
-      </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
+        <v>4</v>
+      </c>
+      <c r="J14" s="3">
         <v>2</v>
-      </c>
-      <c r="H14" s="3">
-        <v>4</v>
-      </c>
-      <c r="I14" s="3">
-        <v>2</v>
-      </c>
-      <c r="J14" s="3">
-        <v>4</v>
       </c>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
@@ -2226,7 +2228,7 @@
     <row r="15" spans="1:12">
       <c r="A15" s="4"/>
       <c r="B15" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>87</v>
@@ -2235,22 +2237,22 @@
         <v>3</v>
       </c>
       <c r="E15" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F15" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G15" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H15" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I15" s="3">
         <v>2</v>
       </c>
       <c r="J15" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
@@ -2264,25 +2266,25 @@
         <v>89</v>
       </c>
       <c r="D16" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E16" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F16" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G16" s="3">
+        <v>5</v>
+      </c>
+      <c r="H16" s="3">
         <v>6</v>
       </c>
-      <c r="H16" s="3">
+      <c r="I16" s="3">
         <v>5</v>
       </c>
-      <c r="I16" s="3">
-        <v>4</v>
-      </c>
       <c r="J16" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
@@ -2296,25 +2298,25 @@
         <v>91</v>
       </c>
       <c r="D17" s="3">
+        <v>4</v>
+      </c>
+      <c r="E17" s="3">
+        <v>4</v>
+      </c>
+      <c r="F17" s="3">
+        <v>2</v>
+      </c>
+      <c r="G17" s="3">
+        <v>4</v>
+      </c>
+      <c r="H17" s="3">
         <v>3</v>
-      </c>
-      <c r="E17" s="3">
-        <v>2</v>
-      </c>
-      <c r="F17" s="3">
-        <v>3</v>
-      </c>
-      <c r="G17" s="3">
-        <v>2</v>
-      </c>
-      <c r="H17" s="3">
-        <v>2</v>
       </c>
       <c r="I17" s="3">
         <v>4</v>
       </c>
       <c r="J17" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
@@ -2322,31 +2324,31 @@
     <row r="18" spans="1:12">
       <c r="A18" s="4"/>
       <c r="B18" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>92</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>89</v>
       </c>
       <c r="D18" s="3">
         <v>6</v>
       </c>
       <c r="E18" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F18" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G18" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H18" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I18" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J18" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
@@ -2354,31 +2356,31 @@
     <row r="19" spans="1:12">
       <c r="A19" s="4"/>
       <c r="B19" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>93</v>
       </c>
       <c r="D19" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E19" s="3">
+        <v>3</v>
+      </c>
+      <c r="F19" s="3">
         <v>4</v>
       </c>
-      <c r="F19" s="3">
+      <c r="G19" s="3">
+        <v>4</v>
+      </c>
+      <c r="H19" s="3">
         <v>3</v>
       </c>
-      <c r="G19" s="3">
-        <v>6</v>
-      </c>
-      <c r="H19" s="3">
-        <v>6</v>
-      </c>
       <c r="I19" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J19" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
@@ -2432,10 +2434,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A32" sqref="A32:B34"/>
+      <selection activeCell="A26" sqref="A26:B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2446,12 +2448,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2495,222 +2497,156 @@
       <c r="A11" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C11" s="7">
-        <v>12973</v>
+      <c r="B11" s="3">
+        <v>1997</v>
+      </c>
+      <c r="C11" s="8">
+        <v>14045</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C12" s="7">
-        <v>5850</v>
+        <v>106</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1993</v>
+      </c>
+      <c r="C12" s="8">
+        <v>10396</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="C13" s="7">
-        <v>12908</v>
+        <v>107</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1990</v>
+      </c>
+      <c r="C13" s="8">
+        <v>6130</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C14" s="7">
-        <v>7920</v>
+        <v>108</v>
+      </c>
+      <c r="B14" s="3">
+        <v>2000</v>
+      </c>
+      <c r="C14" s="8">
+        <v>2759</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C15" s="7">
-        <v>8954</v>
+        <v>109</v>
+      </c>
+      <c r="B15" s="3">
+        <v>2005</v>
+      </c>
+      <c r="C15" s="8">
+        <v>12749</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C16" s="7">
-        <v>11920</v>
+        <v>110</v>
+      </c>
+      <c r="B16" s="3">
+        <v>1986</v>
+      </c>
+      <c r="C16" s="8">
+        <v>13021</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C17" s="7">
-        <v>12711</v>
+        <v>111</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1998</v>
+      </c>
+      <c r="C17" s="8">
+        <v>7253</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C18" s="7">
-        <v>5240</v>
+        <v>112</v>
+      </c>
+      <c r="B18" s="3">
+        <v>1977</v>
+      </c>
+      <c r="C18" s="8">
+        <v>11390</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C19" s="7">
-        <v>14542</v>
+        <v>113</v>
+      </c>
+      <c r="B19" s="3">
+        <v>1989</v>
+      </c>
+      <c r="C19" s="8">
+        <v>12116</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C20" s="7">
-        <v>4332</v>
+        <v>114</v>
+      </c>
+      <c r="B20" s="3">
+        <v>1992</v>
+      </c>
+      <c r="C20" s="8">
+        <v>3712</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C21" s="7">
-        <v>8633</v>
+        <v>115</v>
+      </c>
+      <c r="B21" s="3">
+        <v>1993</v>
+      </c>
+      <c r="C21" s="8">
+        <v>14667</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C22" s="7">
-        <v>14917</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C23" s="7">
-        <v>14869</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C24" s="7">
-        <v>10936</v>
+        <v>116</v>
+      </c>
+      <c r="B22" s="3">
+        <v>1977</v>
+      </c>
+      <c r="C22" s="8">
+        <v>4262</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C25" s="7">
-        <v>6104</v>
+      <c r="A25" s="16" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C26" s="7">
-        <v>6864</v>
-      </c>
+      <c r="A26" t="s">
+        <v>118</v>
+      </c>
+      <c r="B26" s="2"/>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C27" s="7">
-        <v>4062</v>
-      </c>
+      <c r="A27" t="s">
+        <v>119</v>
+      </c>
+      <c r="B27" s="7"/>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="C28" s="7">
-        <v>4487</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="17" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" t="s">
-        <v>142</v>
-      </c>
-      <c r="B32" s="2"/>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" t="s">
-        <v>143</v>
-      </c>
-      <c r="B33" s="6"/>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" t="s">
-        <v>144</v>
-      </c>
-      <c r="B34" s="6"/>
+      <c r="A28" t="s">
+        <v>120</v>
+      </c>
+      <c r="B28" s="7"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2723,6 +2659,226 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:C27"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A10" sqref="A10:C27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="25" customWidth="true" style="0"/>
+    <col min="2" max="2" width="15" customWidth="true" style="0"/>
+    <col min="3" max="3" width="18" customWidth="true" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="14" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B8" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B11" s="3">
+        <v>101</v>
+      </c>
+      <c r="C11" s="9"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B12" s="3">
+        <v>177</v>
+      </c>
+      <c r="C12" s="9"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B13" s="3">
+        <v>122</v>
+      </c>
+      <c r="C13" s="9"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B14" s="3">
+        <v>132</v>
+      </c>
+      <c r="C14" s="9"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B15" s="3">
+        <v>101</v>
+      </c>
+      <c r="C15" s="9"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B16" s="3">
+        <v>153</v>
+      </c>
+      <c r="C16" s="9"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B17" s="3">
+        <v>144</v>
+      </c>
+      <c r="C17" s="9"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B18" s="3">
+        <v>189</v>
+      </c>
+      <c r="C18" s="9"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B19" s="3">
+        <v>151</v>
+      </c>
+      <c r="C19" s="9"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B20" s="3">
+        <v>116</v>
+      </c>
+      <c r="C20" s="9"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B21" s="3">
+        <v>189</v>
+      </c>
+      <c r="C21" s="9"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B22" s="3">
+        <v>196</v>
+      </c>
+      <c r="C22" s="9"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B23" s="3">
+        <v>166</v>
+      </c>
+      <c r="C23" s="9"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B24" s="3">
+        <v>192</v>
+      </c>
+      <c r="C24" s="9"/>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B25" s="3">
+        <v>138</v>
+      </c>
+      <c r="C25" s="9"/>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B26" s="3">
+        <v>96</v>
+      </c>
+      <c r="C26" s="9"/>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B27" s="3">
+        <v>200</v>
+      </c>
+      <c r="C27" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2745,86 +2901,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="15" t="s">
-        <v>145</v>
+      <c r="A1" s="14" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="F15" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="G15" s="5" t="s">
         <v>157</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2832,22 +2988,22 @@
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="D16" s="7">
-        <v>1030</v>
-      </c>
-      <c r="E16" s="7">
-        <v>1195</v>
+        <v>159</v>
+      </c>
+      <c r="D16" s="8">
+        <v>1211</v>
+      </c>
+      <c r="E16" s="8">
+        <v>1429</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2855,22 +3011,22 @@
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D17" s="8">
+        <v>1261</v>
+      </c>
+      <c r="E17" s="8">
+        <v>1488</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="G17" s="3" t="s">
         <v>163</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="D17" s="7">
-        <v>1435</v>
-      </c>
-      <c r="E17" s="7">
-        <v>1607</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -2878,22 +3034,22 @@
         <v>3</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="D18" s="7">
-        <v>1407</v>
-      </c>
-      <c r="E18" s="7">
-        <v>1899</v>
+        <v>165</v>
+      </c>
+      <c r="D18" s="8">
+        <v>709</v>
+      </c>
+      <c r="E18" s="8">
+        <v>993</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -2901,22 +3057,22 @@
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="D19" s="7">
-        <v>1364</v>
-      </c>
-      <c r="E19" s="7">
-        <v>1664</v>
+        <v>168</v>
+      </c>
+      <c r="D19" s="8">
+        <v>1340</v>
+      </c>
+      <c r="E19" s="8">
+        <v>1541</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -2924,22 +3080,22 @@
         <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1114</v>
-      </c>
-      <c r="E20" s="7">
-        <v>1493</v>
+        <v>159</v>
+      </c>
+      <c r="D20" s="8">
+        <v>1152</v>
+      </c>
+      <c r="E20" s="8">
+        <v>1279</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2947,22 +3103,22 @@
         <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="D21" s="7">
-        <v>1394</v>
-      </c>
-      <c r="E21" s="7">
-        <v>1826</v>
+        <v>174</v>
+      </c>
+      <c r="D21" s="8">
+        <v>1119</v>
+      </c>
+      <c r="E21" s="8">
+        <v>1354</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2970,22 +3126,22 @@
         <v>7</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="D22" s="7">
-        <v>1285</v>
-      </c>
-      <c r="E22" s="7">
-        <v>1696</v>
+        <v>176</v>
+      </c>
+      <c r="D22" s="8">
+        <v>1471</v>
+      </c>
+      <c r="E22" s="8">
+        <v>1692</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2993,22 +3149,22 @@
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="D23" s="7">
-        <v>1332</v>
-      </c>
-      <c r="E23" s="7">
-        <v>1745</v>
+        <v>165</v>
+      </c>
+      <c r="D23" s="8">
+        <v>1068</v>
+      </c>
+      <c r="E23" s="8">
+        <v>1399</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -3016,22 +3172,22 @@
         <v>9</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="D24" s="7">
-        <v>1157</v>
-      </c>
-      <c r="E24" s="7">
-        <v>1388</v>
+        <v>168</v>
+      </c>
+      <c r="D24" s="8">
+        <v>1274</v>
+      </c>
+      <c r="E24" s="8">
+        <v>1465</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -3039,22 +3195,22 @@
         <v>10</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="D25" s="7">
-        <v>606</v>
-      </c>
-      <c r="E25" s="7">
-        <v>685</v>
+        <v>182</v>
+      </c>
+      <c r="D25" s="8">
+        <v>620</v>
+      </c>
+      <c r="E25" s="8">
+        <v>794</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -3062,22 +3218,22 @@
         <v>11</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="D26" s="7">
-        <v>1314</v>
-      </c>
-      <c r="E26" s="7">
-        <v>1734</v>
+        <v>185</v>
+      </c>
+      <c r="D26" s="8">
+        <v>650</v>
+      </c>
+      <c r="E26" s="8">
+        <v>826</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3085,22 +3241,22 @@
         <v>12</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="D27" s="7">
-        <v>1297</v>
-      </c>
-      <c r="E27" s="7">
-        <v>1556</v>
+        <v>187</v>
+      </c>
+      <c r="D27" s="8">
+        <v>580</v>
+      </c>
+      <c r="E27" s="8">
+        <v>650</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3108,22 +3264,22 @@
         <v>13</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="D28" s="7">
-        <v>1044</v>
-      </c>
-      <c r="E28" s="7">
-        <v>1326</v>
+        <v>190</v>
+      </c>
+      <c r="D28" s="8">
+        <v>1137</v>
+      </c>
+      <c r="E28" s="8">
+        <v>1444</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3131,22 +3287,22 @@
         <v>14</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="D29" s="7">
-        <v>1332</v>
-      </c>
-      <c r="E29" s="7">
-        <v>1638</v>
+        <v>193</v>
+      </c>
+      <c r="D29" s="8">
+        <v>657</v>
+      </c>
+      <c r="E29" s="8">
+        <v>756</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3154,22 +3310,22 @@
         <v>15</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="D30" s="7">
-        <v>1113</v>
-      </c>
-      <c r="E30" s="7">
-        <v>1414</v>
+        <v>165</v>
+      </c>
+      <c r="D30" s="8">
+        <v>1213</v>
+      </c>
+      <c r="E30" s="8">
+        <v>1650</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3177,22 +3333,22 @@
         <v>16</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="D31" s="7">
-        <v>531</v>
-      </c>
-      <c r="E31" s="7">
-        <v>743</v>
+        <v>195</v>
+      </c>
+      <c r="D31" s="8">
+        <v>1230</v>
+      </c>
+      <c r="E31" s="8">
+        <v>1513</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3200,22 +3356,22 @@
         <v>17</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="D32" s="7">
-        <v>816</v>
-      </c>
-      <c r="E32" s="7">
-        <v>1077</v>
+        <v>197</v>
+      </c>
+      <c r="D32" s="8">
+        <v>742</v>
+      </c>
+      <c r="E32" s="8">
+        <v>861</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3223,22 +3379,22 @@
         <v>18</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="D33" s="7">
-        <v>1275</v>
-      </c>
-      <c r="E33" s="7">
-        <v>1747</v>
+        <v>199</v>
+      </c>
+      <c r="D33" s="8">
+        <v>1357</v>
+      </c>
+      <c r="E33" s="8">
+        <v>1764</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>169</v>
+        <v>201</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3246,22 +3402,22 @@
         <v>19</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="D34" s="7">
-        <v>1283</v>
-      </c>
-      <c r="E34" s="7">
-        <v>1719</v>
+        <v>190</v>
+      </c>
+      <c r="D34" s="8">
+        <v>1118</v>
+      </c>
+      <c r="E34" s="8">
+        <v>1476</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3269,22 +3425,22 @@
         <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>204</v>
+        <v>158</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="D35" s="7">
-        <v>1083</v>
-      </c>
-      <c r="E35" s="7">
-        <v>1202</v>
+        <v>202</v>
+      </c>
+      <c r="D35" s="8">
+        <v>924</v>
+      </c>
+      <c r="E35" s="8">
+        <v>1238</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3292,22 +3448,22 @@
         <v>21</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="D36" s="7">
-        <v>642</v>
-      </c>
-      <c r="E36" s="7">
-        <v>867</v>
+        <v>185</v>
+      </c>
+      <c r="D36" s="8">
+        <v>1347</v>
+      </c>
+      <c r="E36" s="8">
+        <v>1778</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>166</v>
+        <v>201</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3315,22 +3471,22 @@
         <v>22</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>204</v>
+        <v>178</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="D37" s="7">
-        <v>1333</v>
-      </c>
-      <c r="E37" s="7">
-        <v>1600</v>
+        <v>185</v>
+      </c>
+      <c r="D37" s="8">
+        <v>629</v>
+      </c>
+      <c r="E37" s="8">
+        <v>805</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>206</v>
+        <v>171</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3338,22 +3494,22 @@
         <v>23</v>
       </c>
       <c r="B38" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="C38" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="D38" s="7">
-        <v>952</v>
-      </c>
-      <c r="E38" s="7">
-        <v>1228</v>
+      <c r="D38" s="8">
+        <v>1162</v>
+      </c>
+      <c r="E38" s="8">
+        <v>1499</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>200</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3361,22 +3517,22 @@
         <v>24</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C39" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="D39" s="8">
+        <v>1497</v>
+      </c>
+      <c r="E39" s="8">
+        <v>1976</v>
+      </c>
+      <c r="F39" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="D39" s="7">
-        <v>1360</v>
-      </c>
-      <c r="E39" s="7">
-        <v>1863</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>197</v>
-      </c>
       <c r="G39" s="3" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3384,58 +3540,58 @@
         <v>25</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="D40" s="7">
-        <v>1293</v>
-      </c>
-      <c r="E40" s="7">
-        <v>1461</v>
+        <v>206</v>
+      </c>
+      <c r="D40" s="8">
+        <v>1438</v>
+      </c>
+      <c r="E40" s="8">
+        <v>1841</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="17" t="s">
-        <v>141</v>
+      <c r="A43" s="16" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" t="s">
-        <v>209</v>
-      </c>
-      <c r="B44" s="6"/>
+        <v>207</v>
+      </c>
+      <c r="B44" s="7"/>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>210</v>
-      </c>
-      <c r="B45" s="6"/>
+        <v>208</v>
+      </c>
+      <c r="B45" s="7"/>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>211</v>
-      </c>
-      <c r="B46" s="6"/>
+        <v>209</v>
+      </c>
+      <c r="B46" s="7"/>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>212</v>
-      </c>
-      <c r="B47" s="6"/>
+        <v>210</v>
+      </c>
+      <c r="B47" s="7"/>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>213</v>
-      </c>
-      <c r="B48" s="6"/>
+        <v>211</v>
+      </c>
+      <c r="B48" s="7"/>
     </row>
   </sheetData>
   <mergeCells>
